--- a/4x4x4solver_v6/analytics.xlsx
+++ b/4x4x4solver_v6/analytics.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\Solvour\4x4x4solver_v6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECF1A3A-90FD-4BE4-8DCF-4B5009D13D5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E061BA7-78AF-4C0C-9005-A20645EEC931}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{946BFEEE-BBBF-4482-BF8B-5542A0A8C7AB}"/>
   </bookViews>
   <sheets>
-    <sheet name="0.5-5-3-3-3-5_100個" sheetId="3" r:id="rId1"/>
-    <sheet name="0.5-5-2-2-2-4" sheetId="2" r:id="rId2"/>
-    <sheet name="0.5-5-3-3-3-5" sheetId="1" r:id="rId3"/>
+    <sheet name="IDA改善0.5-5-3-3-3-5" sheetId="4" r:id="rId1"/>
+    <sheet name="0.5-5-3-3-3-5_100個" sheetId="3" r:id="rId2"/>
+    <sheet name="0.5-5-2-2-2-4" sheetId="2" r:id="rId3"/>
+    <sheet name="0.5-5-3-3-3-5" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="16">
   <si>
     <t>時間</t>
     <rPh sb="0" eb="2">
@@ -107,6 +108,60 @@
   </si>
   <si>
     <t>カウント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>割合%</t>
+    <rPh sb="0" eb="2">
+      <t>ワリアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10秒未満</t>
+    <rPh sb="2" eb="3">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5秒未満</t>
+    <rPh sb="1" eb="2">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ミマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3秒未満</t>
+    <rPh sb="1" eb="4">
+      <t>ビョウミマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2秒未満</t>
+    <rPh sb="1" eb="2">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ミマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1秒未満</t>
+    <rPh sb="1" eb="2">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ミマン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -255,7 +310,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'0.5-5-3-3-3-5_100個'!$F$10</c:f>
+              <c:f>'IDA改善0.5-5-3-3-3-5'!$F$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -276,7 +331,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'0.5-5-3-3-3-5_100個'!$D$11:$D$28</c:f>
+              <c:f>'IDA改善0.5-5-3-3-3-5'!$D$11:$D$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -339,70 +394,70 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'0.5-5-3-3-3-5_100個'!$F$11:$F$28</c:f>
+              <c:f>'IDA改善0.5-5-3-3-3-5'!$F$11:$F$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DBE8-4610-A3DF-0C044628D855}"/>
+              <c16:uniqueId val="{00000000-C72B-46CA-8AD9-52BF21570C3D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -415,11 +470,12 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="514155824"/>
-        <c:axId val="514154840"/>
+        <c:overlap val="-27"/>
+        <c:axId val="617242032"/>
+        <c:axId val="617243672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="514155824"/>
+        <c:axId val="617242032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -462,7 +518,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514154840"/>
+        <c:crossAx val="617243672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -470,7 +526,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="514154840"/>
+        <c:axId val="617243672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -521,7 +577,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514155824"/>
+        <c:crossAx val="617242032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -689,7 +745,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'0.5-5-3-3-3-5_100個'!$J$10</c:f>
+              <c:f>'IDA改善0.5-5-3-3-3-5'!$J$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -710,7 +766,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'0.5-5-3-3-3-5_100個'!$H$11:$H$17</c:f>
+              <c:f>'IDA改善0.5-5-3-3-3-5'!$H$11:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -740,37 +796,37 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'0.5-5-3-3-3-5_100個'!$J$11:$J$17</c:f>
+              <c:f>'IDA改善0.5-5-3-3-3-5'!$J$11:$J$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E9C4-422F-AABA-14FF9A86B3BC}"/>
+              <c16:uniqueId val="{00000000-A5AB-4557-9DFB-95ABA2AE1941}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -784,11 +840,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="685893168"/>
-        <c:axId val="685897760"/>
+        <c:axId val="617230552"/>
+        <c:axId val="617229568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="685893168"/>
+        <c:axId val="617230552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -831,7 +887,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="685897760"/>
+        <c:crossAx val="617229568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -839,7 +895,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="685897760"/>
+        <c:axId val="617229568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -890,7 +946,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="685893168"/>
+        <c:crossAx val="617230552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1058,7 +1114,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'0.5-5-2-2-2-4'!$F$10</c:f>
+              <c:f>'0.5-5-3-3-3-5_100個'!$F$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1079,7 +1135,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'0.5-5-2-2-2-4'!$D$11:$D$28</c:f>
+              <c:f>'0.5-5-3-3-3-5_100個'!$D$11:$D$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -1142,60 +1198,60 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'0.5-5-2-2-2-4'!$F$11:$F$28</c:f>
+              <c:f>'0.5-5-3-3-3-5_100個'!$F$11:$F$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1</c:v>
@@ -1205,7 +1261,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3379-44E5-9DD9-9AB36C638C22}"/>
+              <c16:uniqueId val="{00000000-DBE8-4610-A3DF-0C044628D855}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1492,7 +1548,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'0.5-5-2-2-2-4'!$J$10</c:f>
+              <c:f>'0.5-5-3-3-3-5_100個'!$J$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1513,7 +1569,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'0.5-5-2-2-2-4'!$H$11:$H$17</c:f>
+              <c:f>'0.5-5-3-3-3-5_100個'!$H$11:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1543,27 +1599,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'0.5-5-2-2-2-4'!$J$11:$J$17</c:f>
+              <c:f>'0.5-5-3-3-3-5_100個'!$J$11:$J$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1573,7 +1629,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4A8E-4809-94D2-96C60C40D888}"/>
+              <c16:uniqueId val="{00000000-E9C4-422F-AABA-14FF9A86B3BC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1861,6 +1917,809 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>'0.5-5-2-2-2-4'!$F$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>カウント</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'0.5-5-2-2-2-4'!$D$11:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'0.5-5-2-2-2-4'!$F$11:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3379-44E5-9DD9-9AB36C638C22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="514155824"/>
+        <c:axId val="514154840"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="514155824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="514154840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="514154840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="514155824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>手数</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0.5-5-2-2-2-4'!$J$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>カウント</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'0.5-5-2-2-2-4'!$H$11:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'0.5-5-2-2-2-4'!$J$11:$J$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4A8E-4809-94D2-96C60C40D888}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="685893168"/>
+        <c:axId val="685897760"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="685893168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="685897760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="685897760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="685893168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>時間</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>'0.5-5-3-3-3-5'!$F$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -2214,7 +3073,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -2817,6 +3676,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -5835,7 +6774,1090 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>519112</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>290512</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8D440BA-12EF-4379-A099-1F021CB3DEB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>128587</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>585787</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{058D2AF4-B08E-4AD7-81CF-850A7831D440}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5916,7 +7938,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5997,7 +8019,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6370,11 +8392,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE3B6A1-53E3-48B8-947C-A15ED8820269}">
-  <dimension ref="A1:J98"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32CE6024-17ED-4D0B-9C09-169A4D652D31}">
+  <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T28" sqref="T28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6389,10 +8411,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>2.3646709920000002</v>
+        <v>0.91156101199999995</v>
       </c>
       <c r="B2">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
@@ -6400,116 +8422,154 @@
       <c r="F2" t="s">
         <v>1</v>
       </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>4.9621684549999996</v>
+        <v>9.0657722950000004</v>
       </c>
       <c r="B3">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
       <c r="E3">
         <f>AVERAGE(A:A)</f>
-        <v>5.2077668942989677</v>
+        <v>4.7723023128599982</v>
       </c>
       <c r="F3">
         <f>AVERAGE(B:B)</f>
-        <v>57.134020618556704</v>
+        <v>57.11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <f>COUNTIFS(A:A,"&lt;10")/COUNT(A:A)*100</f>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>1.875103951</v>
+        <v>2.2552206520000002</v>
       </c>
       <c r="B4">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
       <c r="E4">
         <f>_xlfn.STDEV.S(A:A)</f>
-        <v>3.6558136893470849</v>
+        <v>3.4249321135565456</v>
       </c>
       <c r="F4">
         <f>_xlfn.STDEV.S(B:B)</f>
-        <v>2.0947795527382951</v>
+        <v>2.3736559195136979</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4">
+        <f>COUNTIFS(A:A,"&lt;5")/COUNT(A:A)*100</f>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>6.1049258709999998</v>
+        <v>7.4288103579999998</v>
       </c>
       <c r="B5">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
       </c>
       <c r="E5">
         <f>MAX(A:A)</f>
-        <v>17.131997349999999</v>
+        <v>18.391736510000001</v>
       </c>
       <c r="F5">
         <f>MAX(B:B)</f>
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5">
+        <f>COUNTIFS(A:A,"&lt;3")/COUNT(A:A)*100</f>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>6.8672938349999999</v>
+        <v>2.459074974</v>
       </c>
       <c r="B6">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
       <c r="E6">
         <f>MEDIAN(A:A)</f>
-        <v>4.0858032700000004</v>
+        <v>4.2178262469999996</v>
       </c>
       <c r="F6">
         <f>MEDIAN(B:B)</f>
         <v>57</v>
       </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6">
+        <f>COUNTIFS(A:A,"&lt;2")/COUNT(A:A)*100</f>
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>6.4045605659999998</v>
+        <v>8.2417311669999993</v>
       </c>
       <c r="B7">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
       <c r="E7">
         <f>MIN(A:A)</f>
-        <v>0.76197838799999995</v>
+        <v>0.28926753999999999</v>
       </c>
       <c r="F7">
         <f>MIN(B:B)</f>
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7">
+        <f>COUNTIFS(A:A,"&lt;1")/COUNT(A:A)*100</f>
+        <v>7.0000000000000009</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>2.044305563</v>
+        <v>5.8410260679999997</v>
       </c>
       <c r="B8">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>9.7807893749999995</v>
+        <v>5.6945331100000001</v>
       </c>
       <c r="B9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
         <v>0</v>
@@ -6520,10 +8580,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>14.34768367</v>
+        <v>5.7971532339999996</v>
       </c>
       <c r="B10">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -6546,10 +8606,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>16.195704460000002</v>
+        <v>7.3711586000000002</v>
       </c>
       <c r="B11">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -6559,7 +8619,7 @@
       </c>
       <c r="F11">
         <f>COUNTIFS(A:A,"&lt;"&amp;E11,A:A,"&gt;="&amp;D11)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H11">
         <v>50</v>
@@ -6568,16 +8628,16 @@
         <v>52</v>
       </c>
       <c r="J11">
-        <f>COUNTIFS(B:B,"&lt;"&amp;I11,B:B,"&gt;="&amp;H11)</f>
-        <v>2</v>
+        <f t="shared" ref="J11:J17" si="0">COUNTIFS(B:B,"&lt;"&amp;I11,B:B,"&gt;="&amp;H11)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>0.93065237999999995</v>
+        <v>1.4676973820000001</v>
       </c>
       <c r="B12">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -6586,8 +8646,8 @@
         <v>2</v>
       </c>
       <c r="F12">
-        <f t="shared" ref="F12:F28" si="0">COUNTIFS(A:A,"&lt;"&amp;E12,A:A,"&gt;="&amp;D12)</f>
-        <v>10</v>
+        <f t="shared" ref="F12:F28" si="1">COUNTIFS(A:A,"&lt;"&amp;E12,A:A,"&gt;="&amp;D12)</f>
+        <v>15</v>
       </c>
       <c r="H12">
         <v>52</v>
@@ -6596,16 +8656,16 @@
         <v>54</v>
       </c>
       <c r="J12">
-        <f>COUNTIFS(B:B,"&lt;"&amp;I12,B:B,"&gt;="&amp;H12)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>9.8569552900000001</v>
+        <v>12.11874914</v>
       </c>
       <c r="B13">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -6614,110 +8674,110 @@
         <v>3</v>
       </c>
       <c r="F13">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="H13">
+        <v>54</v>
+      </c>
+      <c r="I13">
+        <v>56</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>4.4142434599999998</v>
+      </c>
+      <c r="B14">
+        <v>60</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="H14">
+        <v>56</v>
+      </c>
+      <c r="I14">
+        <v>58</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>9.4316904539999999</v>
+      </c>
+      <c r="B15">
+        <v>61</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H15">
+        <v>58</v>
+      </c>
+      <c r="I15">
+        <v>60</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>6.2517306799999997</v>
+      </c>
+      <c r="B16">
+        <v>59</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="H16">
+        <v>60</v>
+      </c>
+      <c r="I16">
+        <v>62</v>
+      </c>
+      <c r="J16">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="H13">
-        <v>54</v>
-      </c>
-      <c r="I13">
-        <v>56</v>
-      </c>
-      <c r="J13">
-        <f>COUNTIFS(B:B,"&lt;"&amp;I13,B:B,"&gt;="&amp;H13)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A14">
-        <v>5.4501101969999999</v>
-      </c>
-      <c r="B14">
-        <v>59</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="E14">
-        <v>4</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="H14">
-        <v>56</v>
-      </c>
-      <c r="I14">
-        <v>58</v>
-      </c>
-      <c r="J14">
-        <f>COUNTIFS(B:B,"&lt;"&amp;I14,B:B,"&gt;="&amp;H14)</f>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A15">
-        <v>8.9584798810000006</v>
-      </c>
-      <c r="B15">
-        <v>57</v>
-      </c>
-      <c r="D15">
-        <v>4</v>
-      </c>
-      <c r="E15">
-        <v>5</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="H15">
-        <v>58</v>
-      </c>
-      <c r="I15">
-        <v>60</v>
-      </c>
-      <c r="J15">
-        <f>COUNTIFS(B:B,"&lt;"&amp;I15,B:B,"&gt;="&amp;H15)</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A16">
-        <v>4.0858032700000004</v>
-      </c>
-      <c r="B16">
-        <v>59</v>
-      </c>
-      <c r="D16">
-        <v>5</v>
-      </c>
-      <c r="E16">
-        <v>6</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="H16">
-        <v>60</v>
-      </c>
-      <c r="I16">
-        <v>62</v>
-      </c>
-      <c r="J16">
-        <f>COUNTIFS(B:B,"&lt;"&amp;I16,B:B,"&gt;="&amp;H16)</f>
-        <v>12</v>
-      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>7.4046759609999997</v>
+        <v>3.9368255140000001</v>
       </c>
       <c r="B17">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D17">
         <v>6</v>
@@ -6726,8 +8786,8 @@
         <v>7</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="H17">
         <v>62</v>
@@ -6736,16 +8796,16 @@
         <v>64</v>
       </c>
       <c r="J17">
-        <f>COUNTIFS(B:B,"&lt;"&amp;I17,B:B,"&gt;="&amp;H17)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>15.161167860000001</v>
+        <v>0.70162582399999995</v>
       </c>
       <c r="B18">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D18">
         <v>7</v>
@@ -6754,16 +8814,16 @@
         <v>8</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>2.3474502560000001</v>
+        <v>6.400545835</v>
       </c>
       <c r="B19">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D19">
         <v>8</v>
@@ -6772,16 +8832,16 @@
         <v>9</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>3.343538761</v>
+        <v>5.0056753159999996</v>
       </c>
       <c r="B20">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20">
         <v>9</v>
@@ -6790,16 +8850,16 @@
         <v>10</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>0.81881236999999996</v>
+        <v>4.317708015</v>
       </c>
       <c r="B21">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D21">
         <v>10</v>
@@ -6808,16 +8868,16 @@
         <v>11</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>9.0709059239999998</v>
+        <v>4.2262420650000001</v>
       </c>
       <c r="B22">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D22">
         <v>11</v>
@@ -6826,13 +8886,13 @@
         <v>12</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>1.8664402959999999</v>
+        <v>0.45876812900000002</v>
       </c>
       <c r="B23">
         <v>56</v>
@@ -6844,16 +8904,16 @@
         <v>13</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>3.8062994479999999</v>
+        <v>2.0022134779999998</v>
       </c>
       <c r="B24">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D24">
         <v>13</v>
@@ -6862,13 +8922,13 @@
         <v>14</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>8.6331090929999998</v>
+        <v>8.2136166100000008</v>
       </c>
       <c r="B25">
         <v>55</v>
@@ -6880,16 +8940,16 @@
         <v>15</v>
       </c>
       <c r="F25">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>1.5350668430000001</v>
+        <v>9.4939255710000001</v>
       </c>
       <c r="B26">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D26">
         <v>15</v>
@@ -6898,16 +8958,16 @@
         <v>16</v>
       </c>
       <c r="F26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>0.99209785500000003</v>
+        <v>2.6879019739999999</v>
       </c>
       <c r="B27">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D27">
         <v>16</v>
@@ -6916,16 +8976,16 @@
         <v>17</v>
       </c>
       <c r="F27">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>3.0570921900000001</v>
+        <v>2.2292726040000002</v>
       </c>
       <c r="B28">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D28">
         <v>17</v>
@@ -6934,21 +8994,21 @@
         <v>18</v>
       </c>
       <c r="F28">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>2.8175573350000001</v>
+        <v>8.8671164509999993</v>
       </c>
       <c r="B29">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>17.131997349999999</v>
+        <v>5.9783911710000002</v>
       </c>
       <c r="B30">
         <v>59</v>
@@ -6956,55 +9016,55 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>1.071681023</v>
+        <v>4.9719979759999999</v>
       </c>
       <c r="B31">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>2.2350583080000002</v>
+        <v>4.2094104290000001</v>
       </c>
       <c r="B32">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>11.13967156</v>
+        <v>2.7716386320000002</v>
       </c>
       <c r="B33">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>2.0125370029999998</v>
+        <v>3.2528290750000002</v>
       </c>
       <c r="B34">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>8.3589873309999998</v>
+        <v>1.293574333</v>
       </c>
       <c r="B35">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>5.6101992129999996</v>
+        <v>3.1984465119999999</v>
       </c>
       <c r="B36">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>3.617636681</v>
+        <v>2.2729234699999998</v>
       </c>
       <c r="B37">
         <v>56</v>
@@ -7012,159 +9072,159 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>3.159758568</v>
+        <v>6.4188730720000002</v>
       </c>
       <c r="B38">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>14.00118279</v>
+        <v>1.1649539470000001</v>
       </c>
       <c r="B39">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>0.76861000099999999</v>
+        <v>3.7575361730000001</v>
       </c>
       <c r="B40">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>4.7381711009999998</v>
+        <v>5.2898528579999997</v>
       </c>
       <c r="B41">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>5.8947281839999999</v>
+        <v>9.2229247090000008</v>
       </c>
       <c r="B42">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>5.5691192149999997</v>
+        <v>1.2825870509999999</v>
       </c>
       <c r="B43">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>5.3401443960000003</v>
+        <v>4.9598033429999999</v>
       </c>
       <c r="B44">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>6.9739997389999999</v>
+        <v>4.4300949569999997</v>
       </c>
       <c r="B45">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>6.4773092270000001</v>
+        <v>7.9516942500000001</v>
       </c>
       <c r="B46">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>10.24651742</v>
+        <v>11.58253646</v>
       </c>
       <c r="B47">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48">
-        <v>3.0011801720000002</v>
+        <v>4.5722842220000004</v>
       </c>
       <c r="B48">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>2.4182529449999999</v>
+        <v>1.667496681</v>
       </c>
       <c r="B49">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>3.3362460139999999</v>
+        <v>4.2466421130000001</v>
       </c>
       <c r="B50">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>8.6137514110000009</v>
+        <v>1.1799793240000001</v>
       </c>
       <c r="B51">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>8.772737265</v>
+        <v>1.7648298739999999</v>
       </c>
       <c r="B52">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>3.0288655759999998</v>
+        <v>3.3441116809999998</v>
       </c>
       <c r="B53">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>3.6040000920000002</v>
+        <v>1.7393472189999999</v>
       </c>
       <c r="B54">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55">
-        <v>4.1128444670000004</v>
+        <v>4.8351061340000001</v>
       </c>
       <c r="B55">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56">
-        <v>4.5379726890000001</v>
+        <v>5.0804128649999996</v>
       </c>
       <c r="B56">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57">
-        <v>6.3730261329999998</v>
+        <v>5.4246685499999998</v>
       </c>
       <c r="B57">
         <v>60</v>
@@ -7172,87 +9232,87 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>1.617246628</v>
+        <v>1.590498924</v>
       </c>
       <c r="B58">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>7.5578248500000003</v>
+        <v>1.8488097189999999</v>
       </c>
       <c r="B59">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60">
-        <v>2.9981784820000001</v>
+        <v>3.0719785690000001</v>
       </c>
       <c r="B60">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61">
-        <v>5.06615591</v>
+        <v>1.268601179</v>
       </c>
       <c r="B61">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62">
-        <v>14.50288153</v>
+        <v>9.0020792479999994</v>
       </c>
       <c r="B62">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63">
-        <v>3.4517686369999998</v>
+        <v>8.7706780430000002</v>
       </c>
       <c r="B63">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64">
-        <v>7.5230021479999998</v>
+        <v>15.208198790000001</v>
       </c>
       <c r="B64">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65">
-        <v>2.1057510380000002</v>
+        <v>2.8752312660000001</v>
       </c>
       <c r="B65">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66">
-        <v>3.9852092269999999</v>
+        <v>5.359671831</v>
       </c>
       <c r="B66">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67">
-        <v>3.0104746819999999</v>
+        <v>1.1189792160000001</v>
       </c>
       <c r="B67">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68">
-        <v>3.4616003040000001</v>
+        <v>3.975045443</v>
       </c>
       <c r="B68">
         <v>58</v>
@@ -7260,31 +9320,31 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69">
-        <v>6.0242557530000003</v>
+        <v>3.3669180870000002</v>
       </c>
       <c r="B69">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70">
-        <v>2.3913242819999998</v>
+        <v>12.490013360000001</v>
       </c>
       <c r="B70">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71">
-        <v>1.970882893</v>
+        <v>9.2364037040000007</v>
       </c>
       <c r="B71">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72">
-        <v>3.9227828979999999</v>
+        <v>3.6547677520000001</v>
       </c>
       <c r="B72">
         <v>57</v>
@@ -7292,79 +9352,79 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73">
-        <v>2.7560963630000002</v>
+        <v>2.3997592929999998</v>
       </c>
       <c r="B73">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74">
-        <v>9.3793394570000004</v>
+        <v>18.391736510000001</v>
       </c>
       <c r="B74">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75">
-        <v>4.3301615719999997</v>
+        <v>0.28926753999999999</v>
       </c>
       <c r="B75">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76">
-        <v>5.025764465</v>
+        <v>5.5026137830000001</v>
       </c>
       <c r="B76">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77">
-        <v>1.1449394230000001</v>
+        <v>3.6627094750000002</v>
       </c>
       <c r="B77">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78">
-        <v>4.0240545269999997</v>
+        <v>1.7672865390000001</v>
       </c>
       <c r="B78">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79">
-        <v>8.0544023510000002</v>
+        <v>5.6018619540000003</v>
       </c>
       <c r="B79">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80">
-        <v>8.5315206050000008</v>
+        <v>2.9259414669999999</v>
       </c>
       <c r="B80">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81">
-        <v>2.3964309689999999</v>
+        <v>6.1542463300000003</v>
       </c>
       <c r="B81">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82">
-        <v>3.6793394089999998</v>
+        <v>3.5272543430000001</v>
       </c>
       <c r="B82">
         <v>57</v>
@@ -7372,15 +9432,15 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83">
-        <v>0.76197838799999995</v>
+        <v>4.4684212209999998</v>
       </c>
       <c r="B83">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84">
-        <v>2.1975598340000002</v>
+        <v>5.9839971070000004</v>
       </c>
       <c r="B84">
         <v>56</v>
@@ -7388,23 +9448,23 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85">
-        <v>4.6345872879999996</v>
+        <v>1.5389111040000001</v>
       </c>
       <c r="B85">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86">
-        <v>1.5379271510000001</v>
+        <v>5.5571670529999997</v>
       </c>
       <c r="B86">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87">
-        <v>1.6126961710000001</v>
+        <v>0.46694016500000002</v>
       </c>
       <c r="B87">
         <v>57</v>
@@ -7412,55 +9472,55 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88">
-        <v>6.1623251440000004</v>
+        <v>2.986985207</v>
       </c>
       <c r="B88">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A89">
-        <v>2.476655483</v>
+        <v>5.5651953220000001</v>
       </c>
       <c r="B89">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A90">
-        <v>1.483354568</v>
+        <v>0.55953621899999995</v>
       </c>
       <c r="B90">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A91">
-        <v>8.0805184840000006</v>
+        <v>12.90649056</v>
       </c>
       <c r="B91">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A92">
-        <v>2.7321932320000002</v>
+        <v>9.0497984890000005</v>
       </c>
       <c r="B92">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A93">
-        <v>2.4815757270000001</v>
+        <v>2.907189131</v>
       </c>
       <c r="B93">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A94">
-        <v>6.6204133030000003</v>
+        <v>0.65226817100000001</v>
       </c>
       <c r="B94">
         <v>56</v>
@@ -7468,7 +9528,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A95">
-        <v>7.8693859579999996</v>
+        <v>2.5652878280000002</v>
       </c>
       <c r="B95">
         <v>57</v>
@@ -7476,7 +9536,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A96">
-        <v>3.5333521370000001</v>
+        <v>3.2129306789999998</v>
       </c>
       <c r="B96">
         <v>57</v>
@@ -7484,18 +9544,42 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A97">
-        <v>4.4090123180000003</v>
+        <v>1.286572695</v>
       </c>
       <c r="B97">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A98">
-        <v>6.4188573360000003</v>
+        <v>3.1186985969999999</v>
       </c>
       <c r="B98">
-        <v>59</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A99">
+        <v>4.7931780819999998</v>
+      </c>
+      <c r="B99">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A100">
+        <v>2.280947447</v>
+      </c>
+      <c r="B100">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A101">
+        <v>9.1126267910000003</v>
+      </c>
+      <c r="B101">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -7506,6 +9590,1142 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE3B6A1-53E3-48B8-947C-A15ED8820269}">
+  <dimension ref="A1:J98"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>2.3646709920000002</v>
+      </c>
+      <c r="B2">
+        <v>58</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>4.9621684549999996</v>
+      </c>
+      <c r="B3">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <f>AVERAGE(A:A)</f>
+        <v>5.2077668942989677</v>
+      </c>
+      <c r="F3">
+        <f>AVERAGE(B:B)</f>
+        <v>57.134020618556704</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1.875103951</v>
+      </c>
+      <c r="B4">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <f>_xlfn.STDEV.S(A:A)</f>
+        <v>3.6558136893470849</v>
+      </c>
+      <c r="F4">
+        <f>_xlfn.STDEV.S(B:B)</f>
+        <v>2.0947795527382951</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>6.1049258709999998</v>
+      </c>
+      <c r="B5">
+        <v>59</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <f>MAX(A:A)</f>
+        <v>17.131997349999999</v>
+      </c>
+      <c r="F5">
+        <f>MAX(B:B)</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>6.8672938349999999</v>
+      </c>
+      <c r="B6">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <f>MEDIAN(A:A)</f>
+        <v>4.0858032700000004</v>
+      </c>
+      <c r="F6">
+        <f>MEDIAN(B:B)</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6.4045605659999998</v>
+      </c>
+      <c r="B7">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <f>MIN(A:A)</f>
+        <v>0.76197838799999995</v>
+      </c>
+      <c r="F7">
+        <f>MIN(B:B)</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>2.044305563</v>
+      </c>
+      <c r="B8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>9.7807893749999995</v>
+      </c>
+      <c r="B9">
+        <v>60</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>14.34768367</v>
+      </c>
+      <c r="B10">
+        <v>59</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>16.195704460000002</v>
+      </c>
+      <c r="B11">
+        <v>54</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <f>COUNTIFS(A:A,"&lt;"&amp;E11,A:A,"&gt;="&amp;D11)</f>
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>50</v>
+      </c>
+      <c r="I11">
+        <v>52</v>
+      </c>
+      <c r="J11">
+        <f t="shared" ref="J11:J17" si="0">COUNTIFS(B:B,"&lt;"&amp;I11,B:B,"&gt;="&amp;H11)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>0.93065237999999995</v>
+      </c>
+      <c r="B12">
+        <v>54</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ref="F12:F28" si="1">COUNTIFS(A:A,"&lt;"&amp;E12,A:A,"&gt;="&amp;D12)</f>
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>52</v>
+      </c>
+      <c r="I12">
+        <v>54</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>9.8569552900000001</v>
+      </c>
+      <c r="B13">
+        <v>61</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="H13">
+        <v>54</v>
+      </c>
+      <c r="I13">
+        <v>56</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>5.4501101969999999</v>
+      </c>
+      <c r="B14">
+        <v>59</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="H14">
+        <v>56</v>
+      </c>
+      <c r="I14">
+        <v>58</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>8.9584798810000006</v>
+      </c>
+      <c r="B15">
+        <v>57</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="H15">
+        <v>58</v>
+      </c>
+      <c r="I15">
+        <v>60</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>4.0858032700000004</v>
+      </c>
+      <c r="B16">
+        <v>59</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="H16">
+        <v>60</v>
+      </c>
+      <c r="I16">
+        <v>62</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>7.4046759609999997</v>
+      </c>
+      <c r="B17">
+        <v>59</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>62</v>
+      </c>
+      <c r="I17">
+        <v>64</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>15.161167860000001</v>
+      </c>
+      <c r="B18">
+        <v>58</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>2.3474502560000001</v>
+      </c>
+      <c r="B19">
+        <v>60</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>3.343538761</v>
+      </c>
+      <c r="B20">
+        <v>58</v>
+      </c>
+      <c r="D20">
+        <v>9</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>0.81881236999999996</v>
+      </c>
+      <c r="B21">
+        <v>52</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>11</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>9.0709059239999998</v>
+      </c>
+      <c r="B22">
+        <v>58</v>
+      </c>
+      <c r="D22">
+        <v>11</v>
+      </c>
+      <c r="E22">
+        <v>12</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>1.8664402959999999</v>
+      </c>
+      <c r="B23">
+        <v>56</v>
+      </c>
+      <c r="D23">
+        <v>12</v>
+      </c>
+      <c r="E23">
+        <v>13</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>3.8062994479999999</v>
+      </c>
+      <c r="B24">
+        <v>60</v>
+      </c>
+      <c r="D24">
+        <v>13</v>
+      </c>
+      <c r="E24">
+        <v>14</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>8.6331090929999998</v>
+      </c>
+      <c r="B25">
+        <v>55</v>
+      </c>
+      <c r="D25">
+        <v>14</v>
+      </c>
+      <c r="E25">
+        <v>15</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>1.5350668430000001</v>
+      </c>
+      <c r="B26">
+        <v>58</v>
+      </c>
+      <c r="D26">
+        <v>15</v>
+      </c>
+      <c r="E26">
+        <v>16</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>0.99209785500000003</v>
+      </c>
+      <c r="B27">
+        <v>54</v>
+      </c>
+      <c r="D27">
+        <v>16</v>
+      </c>
+      <c r="E27">
+        <v>17</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>3.0570921900000001</v>
+      </c>
+      <c r="B28">
+        <v>57</v>
+      </c>
+      <c r="D28">
+        <v>17</v>
+      </c>
+      <c r="E28">
+        <v>18</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>2.8175573350000001</v>
+      </c>
+      <c r="B29">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>17.131997349999999</v>
+      </c>
+      <c r="B30">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>1.071681023</v>
+      </c>
+      <c r="B31">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>2.2350583080000002</v>
+      </c>
+      <c r="B32">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>11.13967156</v>
+      </c>
+      <c r="B33">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>2.0125370029999998</v>
+      </c>
+      <c r="B34">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>8.3589873309999998</v>
+      </c>
+      <c r="B35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>5.6101992129999996</v>
+      </c>
+      <c r="B36">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>3.617636681</v>
+      </c>
+      <c r="B37">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>3.159758568</v>
+      </c>
+      <c r="B38">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>14.00118279</v>
+      </c>
+      <c r="B39">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>0.76861000099999999</v>
+      </c>
+      <c r="B40">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>4.7381711009999998</v>
+      </c>
+      <c r="B41">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>5.8947281839999999</v>
+      </c>
+      <c r="B42">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>5.5691192149999997</v>
+      </c>
+      <c r="B43">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>5.3401443960000003</v>
+      </c>
+      <c r="B44">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>6.9739997389999999</v>
+      </c>
+      <c r="B45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>6.4773092270000001</v>
+      </c>
+      <c r="B46">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>10.24651742</v>
+      </c>
+      <c r="B47">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>3.0011801720000002</v>
+      </c>
+      <c r="B48">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>2.4182529449999999</v>
+      </c>
+      <c r="B49">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>3.3362460139999999</v>
+      </c>
+      <c r="B50">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>8.6137514110000009</v>
+      </c>
+      <c r="B51">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>8.772737265</v>
+      </c>
+      <c r="B52">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>3.0288655759999998</v>
+      </c>
+      <c r="B53">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>3.6040000920000002</v>
+      </c>
+      <c r="B54">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>4.1128444670000004</v>
+      </c>
+      <c r="B55">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>4.5379726890000001</v>
+      </c>
+      <c r="B56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>6.3730261329999998</v>
+      </c>
+      <c r="B57">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>1.617246628</v>
+      </c>
+      <c r="B58">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>7.5578248500000003</v>
+      </c>
+      <c r="B59">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>2.9981784820000001</v>
+      </c>
+      <c r="B60">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>5.06615591</v>
+      </c>
+      <c r="B61">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>14.50288153</v>
+      </c>
+      <c r="B62">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>3.4517686369999998</v>
+      </c>
+      <c r="B63">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>7.5230021479999998</v>
+      </c>
+      <c r="B64">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A65">
+        <v>2.1057510380000002</v>
+      </c>
+      <c r="B65">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A66">
+        <v>3.9852092269999999</v>
+      </c>
+      <c r="B66">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A67">
+        <v>3.0104746819999999</v>
+      </c>
+      <c r="B67">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A68">
+        <v>3.4616003040000001</v>
+      </c>
+      <c r="B68">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A69">
+        <v>6.0242557530000003</v>
+      </c>
+      <c r="B69">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A70">
+        <v>2.3913242819999998</v>
+      </c>
+      <c r="B70">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A71">
+        <v>1.970882893</v>
+      </c>
+      <c r="B71">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A72">
+        <v>3.9227828979999999</v>
+      </c>
+      <c r="B72">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A73">
+        <v>2.7560963630000002</v>
+      </c>
+      <c r="B73">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A74">
+        <v>9.3793394570000004</v>
+      </c>
+      <c r="B74">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A75">
+        <v>4.3301615719999997</v>
+      </c>
+      <c r="B75">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A76">
+        <v>5.025764465</v>
+      </c>
+      <c r="B76">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A77">
+        <v>1.1449394230000001</v>
+      </c>
+      <c r="B77">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <v>4.0240545269999997</v>
+      </c>
+      <c r="B78">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <v>8.0544023510000002</v>
+      </c>
+      <c r="B79">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <v>8.5315206050000008</v>
+      </c>
+      <c r="B80">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>2.3964309689999999</v>
+      </c>
+      <c r="B81">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <v>3.6793394089999998</v>
+      </c>
+      <c r="B82">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <v>0.76197838799999995</v>
+      </c>
+      <c r="B83">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A84">
+        <v>2.1975598340000002</v>
+      </c>
+      <c r="B84">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A85">
+        <v>4.6345872879999996</v>
+      </c>
+      <c r="B85">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A86">
+        <v>1.5379271510000001</v>
+      </c>
+      <c r="B86">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A87">
+        <v>1.6126961710000001</v>
+      </c>
+      <c r="B87">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A88">
+        <v>6.1623251440000004</v>
+      </c>
+      <c r="B88">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A89">
+        <v>2.476655483</v>
+      </c>
+      <c r="B89">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A90">
+        <v>1.483354568</v>
+      </c>
+      <c r="B90">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A91">
+        <v>8.0805184840000006</v>
+      </c>
+      <c r="B91">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A92">
+        <v>2.7321932320000002</v>
+      </c>
+      <c r="B92">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A93">
+        <v>2.4815757270000001</v>
+      </c>
+      <c r="B93">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A94">
+        <v>6.6204133030000003</v>
+      </c>
+      <c r="B94">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A95">
+        <v>7.8693859579999996</v>
+      </c>
+      <c r="B95">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A96">
+        <v>3.5333521370000001</v>
+      </c>
+      <c r="B96">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A97">
+        <v>4.4090123180000003</v>
+      </c>
+      <c r="B97">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A98">
+        <v>6.4188573360000003</v>
+      </c>
+      <c r="B98">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7412353C-36B4-4188-9488-ED307084059D}">
   <dimension ref="A1:J96"/>
   <sheetViews>
@@ -7704,7 +10924,7 @@
         <v>52</v>
       </c>
       <c r="J11">
-        <f>COUNTIFS(B:B,"&lt;"&amp;I11,B:B,"&gt;="&amp;H11)</f>
+        <f t="shared" ref="J11:J17" si="0">COUNTIFS(B:B,"&lt;"&amp;I11,B:B,"&gt;="&amp;H11)</f>
         <v>1</v>
       </c>
     </row>
@@ -7722,7 +10942,7 @@
         <v>2</v>
       </c>
       <c r="F12">
-        <f t="shared" ref="F12:F28" si="0">COUNTIFS(A:A,"&lt;"&amp;E12,A:A,"&gt;="&amp;D12)</f>
+        <f t="shared" ref="F12:F28" si="1">COUNTIFS(A:A,"&lt;"&amp;E12,A:A,"&gt;="&amp;D12)</f>
         <v>11</v>
       </c>
       <c r="H12">
@@ -7732,7 +10952,7 @@
         <v>54</v>
       </c>
       <c r="J12">
-        <f>COUNTIFS(B:B,"&lt;"&amp;I12,B:B,"&gt;="&amp;H12)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -7750,7 +10970,7 @@
         <v>3</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="H13">
@@ -7760,7 +10980,7 @@
         <v>56</v>
       </c>
       <c r="J13">
-        <f>COUNTIFS(B:B,"&lt;"&amp;I13,B:B,"&gt;="&amp;H13)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
@@ -7778,7 +10998,7 @@
         <v>4</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="H14">
@@ -7788,7 +11008,7 @@
         <v>58</v>
       </c>
       <c r="J14">
-        <f>COUNTIFS(B:B,"&lt;"&amp;I14,B:B,"&gt;="&amp;H14)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
@@ -7806,7 +11026,7 @@
         <v>5</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="H15">
@@ -7816,7 +11036,7 @@
         <v>60</v>
       </c>
       <c r="J15">
-        <f>COUNTIFS(B:B,"&lt;"&amp;I15,B:B,"&gt;="&amp;H15)</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
     </row>
@@ -7834,7 +11054,7 @@
         <v>6</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="H16">
@@ -7844,7 +11064,7 @@
         <v>62</v>
       </c>
       <c r="J16">
-        <f>COUNTIFS(B:B,"&lt;"&amp;I16,B:B,"&gt;="&amp;H16)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
@@ -7862,7 +11082,7 @@
         <v>7</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="H17">
@@ -7872,7 +11092,7 @@
         <v>64</v>
       </c>
       <c r="J17">
-        <f>COUNTIFS(B:B,"&lt;"&amp;I17,B:B,"&gt;="&amp;H17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -7890,7 +11110,7 @@
         <v>8</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -7908,7 +11128,7 @@
         <v>9</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -7926,7 +11146,7 @@
         <v>10</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -7944,7 +11164,7 @@
         <v>11</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -7962,7 +11182,7 @@
         <v>12</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -7980,7 +11200,7 @@
         <v>13</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -7998,7 +11218,7 @@
         <v>14</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -8016,7 +11236,7 @@
         <v>15</v>
       </c>
       <c r="F25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -8034,7 +11254,7 @@
         <v>16</v>
       </c>
       <c r="F26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -8052,7 +11272,7 @@
         <v>17</v>
       </c>
       <c r="F27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -8070,7 +11290,7 @@
         <v>18</v>
       </c>
       <c r="F28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -8625,7 +11845,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081AC988-56DA-434D-BEB0-C61262DEAA46}">
   <dimension ref="A1:J113"/>
   <sheetViews>

--- a/4x4x4solver_v6/analytics.xlsx
+++ b/4x4x4solver_v6/analytics.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\Solvour\4x4x4solver_v6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E061BA7-78AF-4C0C-9005-A20645EEC931}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5E67C5-34CD-4B54-A8FD-84FB9A18D3DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{946BFEEE-BBBF-4482-BF8B-5542A0A8C7AB}"/>
   </bookViews>
   <sheets>
-    <sheet name="IDA改善0.5-5-3-3-3-5" sheetId="4" r:id="rId1"/>
-    <sheet name="0.5-5-3-3-3-5_100個" sheetId="3" r:id="rId2"/>
-    <sheet name="0.5-5-2-2-2-4" sheetId="2" r:id="rId3"/>
-    <sheet name="0.5-5-3-3-3-5" sheetId="1" r:id="rId4"/>
+    <sheet name="NyanyanFunc改善0.5-5-3-3-3-5" sheetId="5" r:id="rId1"/>
+    <sheet name="IDA改善0.5-5-3-3-3-5" sheetId="4" r:id="rId2"/>
+    <sheet name="0.5-5-3-3-3-5_100個" sheetId="3" r:id="rId3"/>
+    <sheet name="0.5-5-2-2-2-4" sheetId="2" r:id="rId4"/>
+    <sheet name="0.5-5-3-3-3-5" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="16">
   <si>
     <t>時間</t>
     <rPh sb="0" eb="2">
@@ -310,7 +311,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'IDA改善0.5-5-3-3-3-5'!$F$10</c:f>
+              <c:f>'NyanyanFunc改善0.5-5-3-3-3-5'!$F$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -331,7 +332,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'IDA改善0.5-5-3-3-3-5'!$D$11:$D$28</c:f>
+              <c:f>'NyanyanFunc改善0.5-5-3-3-3-5'!$D$11:$D$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -394,60 +395,60 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'IDA改善0.5-5-3-3-3-5'!$F$11:$F$28</c:f>
+              <c:f>'NyanyanFunc改善0.5-5-3-3-3-5'!$F$11:$F$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0</c:v>
@@ -457,7 +458,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C72B-46CA-8AD9-52BF21570C3D}"/>
+              <c16:uniqueId val="{00000000-C375-4F5E-8EF0-F2F325F1BFAA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -664,6 +665,369 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>手数</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0.5-5-3-3-3-5'!$J$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>カウント</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'0.5-5-3-3-3-5'!$H$11:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'0.5-5-3-3-3-5'!$J$11:$J$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-066E-4501-BD48-0FB47977FD32}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="685893168"/>
+        <c:axId val="685897760"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="685893168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="685897760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="685897760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="685893168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -745,7 +1109,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'IDA改善0.5-5-3-3-3-5'!$J$10</c:f>
+              <c:f>'NyanyanFunc改善0.5-5-3-3-3-5'!$J$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -766,7 +1130,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'IDA改善0.5-5-3-3-3-5'!$H$11:$H$17</c:f>
+              <c:f>'NyanyanFunc改善0.5-5-3-3-3-5'!$H$11:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -796,7 +1160,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'IDA改善0.5-5-3-3-3-5'!$J$11:$J$17</c:f>
+              <c:f>'NyanyanFunc改善0.5-5-3-3-3-5'!$J$11:$J$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -804,19 +1168,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2</c:v>
@@ -826,7 +1190,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A5AB-4557-9DFB-95ABA2AE1941}"/>
+              <c16:uniqueId val="{00000000-DD36-4DF7-BCD2-E3876BE7A137}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1114,7 +1478,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'0.5-5-3-3-3-5_100個'!$F$10</c:f>
+              <c:f>'IDA改善0.5-5-3-3-3-5'!$F$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1135,7 +1499,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'0.5-5-3-3-3-5_100個'!$D$11:$D$28</c:f>
+              <c:f>'IDA改善0.5-5-3-3-3-5'!$D$11:$D$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -1198,70 +1562,70 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'0.5-5-3-3-3-5_100個'!$F$11:$F$28</c:f>
+              <c:f>'IDA改善0.5-5-3-3-3-5'!$F$11:$F$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DBE8-4610-A3DF-0C044628D855}"/>
+              <c16:uniqueId val="{00000000-C72B-46CA-8AD9-52BF21570C3D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1274,11 +1638,12 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="514155824"/>
-        <c:axId val="514154840"/>
+        <c:overlap val="-27"/>
+        <c:axId val="617242032"/>
+        <c:axId val="617243672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="514155824"/>
+        <c:axId val="617242032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1321,7 +1686,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514154840"/>
+        <c:crossAx val="617243672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1329,7 +1694,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="514154840"/>
+        <c:axId val="617243672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1380,7 +1745,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514155824"/>
+        <c:crossAx val="617242032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1548,7 +1913,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'0.5-5-3-3-3-5_100個'!$J$10</c:f>
+              <c:f>'IDA改善0.5-5-3-3-3-5'!$J$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1569,7 +1934,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'0.5-5-3-3-3-5_100個'!$H$11:$H$17</c:f>
+              <c:f>'IDA改善0.5-5-3-3-3-5'!$H$11:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1599,37 +1964,37 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'0.5-5-3-3-3-5_100個'!$J$11:$J$17</c:f>
+              <c:f>'IDA改善0.5-5-3-3-3-5'!$J$11:$J$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E9C4-422F-AABA-14FF9A86B3BC}"/>
+              <c16:uniqueId val="{00000000-A5AB-4557-9DFB-95ABA2AE1941}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1643,11 +2008,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="685893168"/>
-        <c:axId val="685897760"/>
+        <c:axId val="617230552"/>
+        <c:axId val="617229568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="685893168"/>
+        <c:axId val="617230552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1690,7 +2055,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="685897760"/>
+        <c:crossAx val="617229568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1698,7 +2063,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="685897760"/>
+        <c:axId val="617229568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1749,7 +2114,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="685893168"/>
+        <c:crossAx val="617230552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1917,7 +2282,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'0.5-5-2-2-2-4'!$F$10</c:f>
+              <c:f>'0.5-5-3-3-3-5_100個'!$F$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1938,7 +2303,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'0.5-5-2-2-2-4'!$D$11:$D$28</c:f>
+              <c:f>'0.5-5-3-3-3-5_100個'!$D$11:$D$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -2001,60 +2366,60 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'0.5-5-2-2-2-4'!$F$11:$F$28</c:f>
+              <c:f>'0.5-5-3-3-3-5_100個'!$F$11:$F$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1</c:v>
@@ -2064,7 +2429,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3379-44E5-9DD9-9AB36C638C22}"/>
+              <c16:uniqueId val="{00000000-DBE8-4610-A3DF-0C044628D855}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2351,7 +2716,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'0.5-5-2-2-2-4'!$J$10</c:f>
+              <c:f>'0.5-5-3-3-3-5_100個'!$J$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2372,7 +2737,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'0.5-5-2-2-2-4'!$H$11:$H$17</c:f>
+              <c:f>'0.5-5-3-3-3-5_100個'!$H$11:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2402,27 +2767,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'0.5-5-2-2-2-4'!$J$11:$J$17</c:f>
+              <c:f>'0.5-5-3-3-3-5_100個'!$J$11:$J$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -2432,7 +2797,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4A8E-4809-94D2-96C60C40D888}"/>
+              <c16:uniqueId val="{00000000-E9C4-422F-AABA-14FF9A86B3BC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2720,7 +3085,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'0.5-5-3-3-3-5'!$F$10</c:f>
+              <c:f>'0.5-5-2-2-2-4'!$F$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2741,7 +3106,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'0.5-5-3-3-3-5'!$D$11:$D$28</c:f>
+              <c:f>'0.5-5-2-2-2-4'!$D$11:$D$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -2804,51 +3169,51 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'0.5-5-3-3-3-5'!$F$11:$F$28</c:f>
+              <c:f>'0.5-5-2-2-2-4'!$F$11:$F$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2</c:v>
@@ -2857,7 +3222,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1</c:v>
@@ -2867,7 +3232,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7A29-4D75-93DC-6E7FCFA32ADF}"/>
+              <c16:uniqueId val="{00000000-3379-44E5-9DD9-9AB36C638C22}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3154,7 +3519,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'0.5-5-3-3-3-5'!$J$10</c:f>
+              <c:f>'0.5-5-2-2-2-4'!$J$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3175,26 +3540,29 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'0.5-5-3-3-3-5'!$H$11:$H$16</c:f>
+              <c:f>'0.5-5-2-2-2-4'!$H$11:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>52</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>58</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>62</c:v>
                 </c:pt>
               </c:numCache>
@@ -3202,34 +3570,37 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'0.5-5-3-3-3-5'!$J$11:$J$16</c:f>
+              <c:f>'0.5-5-2-2-2-4'!$J$11:$J$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-066E-4501-BD48-0FB47977FD32}"/>
+              <c16:uniqueId val="{00000000-4A8E-4809-94D2-96C60C40D888}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3436,7 +3807,481 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>時間</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0.5-5-3-3-3-5'!$F$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>カウント</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'0.5-5-3-3-3-5'!$D$11:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'0.5-5-3-3-3-5'!$F$11:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7A29-4D75-93DC-6E7FCFA32ADF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="514155824"/>
+        <c:axId val="514154840"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="514155824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="514154840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="514154840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="514155824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3756,6 +4601,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4259,7 +5144,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4762,7 +5647,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5265,7 +6150,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5768,7 +6653,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6271,7 +7156,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6774,7 +7659,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7277,7 +8162,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7780,7 +8665,1094 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>519112</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>290512</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A48BEC89-285E-4D3D-AF7D-A5BF44208124}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>128587</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>585787</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23BF327D-1A62-48CA-82CB-3E40027EA91E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7857,7 +9829,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7938,7 +9910,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8019,7 +9991,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8392,10 +10364,1200 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0297C02-86D5-4394-99B2-8731B3236664}">
+  <dimension ref="A1:J100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>9.2475357060000007</v>
+      </c>
+      <c r="B2">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2.4492559429999998</v>
+      </c>
+      <c r="B3">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <f>AVERAGE(A:A)</f>
+        <v>4.8507843088888887</v>
+      </c>
+      <c r="F3">
+        <f>AVERAGE(B:B)</f>
+        <v>56.80808080808081</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <f>COUNTIFS(A:A,"&lt;10")/COUNT(A:A)*100</f>
+        <v>90.909090909090907</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1.0125303269999999</v>
+      </c>
+      <c r="B4">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <f>_xlfn.STDEV.S(A:A)</f>
+        <v>3.8139507368777394</v>
+      </c>
+      <c r="F4">
+        <f>_xlfn.STDEV.S(B:B)</f>
+        <v>2.1977575198034018</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4">
+        <f>COUNTIFS(A:A,"&lt;5")/COUNT(A:A)*100</f>
+        <v>61.616161616161612</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>3.9823093410000001</v>
+      </c>
+      <c r="B5">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <f>MAX(A:A)</f>
+        <v>20.609759570000001</v>
+      </c>
+      <c r="F5">
+        <f>MAX(B:B)</f>
+        <v>63</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5">
+        <f>COUNTIFS(A:A,"&lt;3")/COUNT(A:A)*100</f>
+        <v>37.373737373737377</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>0.60739707899999995</v>
+      </c>
+      <c r="B6">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <f>MEDIAN(A:A)</f>
+        <v>3.7351546290000002</v>
+      </c>
+      <c r="F6">
+        <f>MEDIAN(B:B)</f>
+        <v>57</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6">
+        <f>COUNTIFS(A:A,"&lt;2")/COUNT(A:A)*100</f>
+        <v>21.212121212121211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>0.43783497799999999</v>
+      </c>
+      <c r="B7">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <f>MIN(A:A)</f>
+        <v>0.40792655900000002</v>
+      </c>
+      <c r="F7">
+        <f>MIN(B:B)</f>
+        <v>53</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7">
+        <f>COUNTIFS(A:A,"&lt;1")/COUNT(A:A)*100</f>
+        <v>8.0808080808080813</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>4.0668556689999997</v>
+      </c>
+      <c r="B8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>0.94400143599999997</v>
+      </c>
+      <c r="B9">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>2.9636898039999999</v>
+      </c>
+      <c r="B10">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>3.6470909119999999</v>
+      </c>
+      <c r="B11">
+        <v>55</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <f>COUNTIFS(A:A,"&lt;"&amp;E11,A:A,"&gt;="&amp;D11)</f>
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <v>50</v>
+      </c>
+      <c r="I11">
+        <v>52</v>
+      </c>
+      <c r="J11">
+        <f t="shared" ref="J11:J17" si="0">COUNTIFS(B:B,"&lt;"&amp;I11,B:B,"&gt;="&amp;H11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>0.742543697</v>
+      </c>
+      <c r="B12">
+        <v>55</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ref="F12:F28" si="1">COUNTIFS(A:A,"&lt;"&amp;E12,A:A,"&gt;="&amp;D12)</f>
+        <v>13</v>
+      </c>
+      <c r="H12">
+        <v>52</v>
+      </c>
+      <c r="I12">
+        <v>54</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>1.303400278</v>
+      </c>
+      <c r="B13">
+        <v>55</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="H13">
+        <v>54</v>
+      </c>
+      <c r="I13">
+        <v>56</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>8.5769777299999994</v>
+      </c>
+      <c r="B14">
+        <v>56</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="H14">
+        <v>56</v>
+      </c>
+      <c r="I14">
+        <v>58</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>0.40792655900000002</v>
+      </c>
+      <c r="B15">
+        <v>54</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H15">
+        <v>58</v>
+      </c>
+      <c r="I15">
+        <v>60</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>3.7178013320000001</v>
+      </c>
+      <c r="B16">
+        <v>56</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="H16">
+        <v>60</v>
+      </c>
+      <c r="I16">
+        <v>62</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>5.1741280559999998</v>
+      </c>
+      <c r="B17">
+        <v>56</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>62</v>
+      </c>
+      <c r="I17">
+        <v>64</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>2.647383928</v>
+      </c>
+      <c r="B18">
+        <v>57</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>2.8676211829999998</v>
+      </c>
+      <c r="B19">
+        <v>53</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>4.3303225039999997</v>
+      </c>
+      <c r="B20">
+        <v>59</v>
+      </c>
+      <c r="D20">
+        <v>9</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>3.1019515989999999</v>
+      </c>
+      <c r="B21">
+        <v>55</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>11</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>8.7848873140000006</v>
+      </c>
+      <c r="B22">
+        <v>56</v>
+      </c>
+      <c r="D22">
+        <v>11</v>
+      </c>
+      <c r="E22">
+        <v>12</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>1.6289312840000001</v>
+      </c>
+      <c r="B23">
+        <v>56</v>
+      </c>
+      <c r="D23">
+        <v>12</v>
+      </c>
+      <c r="E23">
+        <v>13</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>7.4613277910000004</v>
+      </c>
+      <c r="B24">
+        <v>59</v>
+      </c>
+      <c r="D24">
+        <v>13</v>
+      </c>
+      <c r="E24">
+        <v>14</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>2.1546399589999998</v>
+      </c>
+      <c r="B25">
+        <v>56</v>
+      </c>
+      <c r="D25">
+        <v>14</v>
+      </c>
+      <c r="E25">
+        <v>15</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>4.5812656880000002</v>
+      </c>
+      <c r="B26">
+        <v>59</v>
+      </c>
+      <c r="D26">
+        <v>15</v>
+      </c>
+      <c r="E26">
+        <v>16</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>5.232117176</v>
+      </c>
+      <c r="B27">
+        <v>55</v>
+      </c>
+      <c r="D27">
+        <v>16</v>
+      </c>
+      <c r="E27">
+        <v>17</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>5.0687386989999998</v>
+      </c>
+      <c r="B28">
+        <v>57</v>
+      </c>
+      <c r="D28">
+        <v>17</v>
+      </c>
+      <c r="E28">
+        <v>18</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>2.3551876539999999</v>
+      </c>
+      <c r="B29">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>1.2225208279999999</v>
+      </c>
+      <c r="B30">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>5.2402522559999998</v>
+      </c>
+      <c r="B31">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>14.714605089999999</v>
+      </c>
+      <c r="B32">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>1.0073282720000001</v>
+      </c>
+      <c r="B33">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>1.1666495800000001</v>
+      </c>
+      <c r="B34">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>10.388675689999999</v>
+      </c>
+      <c r="B35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>6.5114326480000004</v>
+      </c>
+      <c r="B36">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>1.2634782790000001</v>
+      </c>
+      <c r="B37">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>1.2584111689999999</v>
+      </c>
+      <c r="B38">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>1.535242558</v>
+      </c>
+      <c r="B39">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>10.059721469999999</v>
+      </c>
+      <c r="B40">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>3.1241765020000001</v>
+      </c>
+      <c r="B41">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>2.2033107279999999</v>
+      </c>
+      <c r="B42">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>2.758876801</v>
+      </c>
+      <c r="B43">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>5.8434722419999998</v>
+      </c>
+      <c r="B44">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>2.4717526439999999</v>
+      </c>
+      <c r="B45">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>7.7602744100000001</v>
+      </c>
+      <c r="B46">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>6.8711397649999997</v>
+      </c>
+      <c r="B47">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>5.0152838229999999</v>
+      </c>
+      <c r="B48">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>3.9415888790000002</v>
+      </c>
+      <c r="B49">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>9.1068792340000009</v>
+      </c>
+      <c r="B50">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>3.4938983920000002</v>
+      </c>
+      <c r="B51">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>3.7931199069999999</v>
+      </c>
+      <c r="B52">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>7.3984079359999999</v>
+      </c>
+      <c r="B53">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>16.669096710000002</v>
+      </c>
+      <c r="B54">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>2.87462616</v>
+      </c>
+      <c r="B55">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>6.3835842610000002</v>
+      </c>
+      <c r="B56">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>2.4804723260000001</v>
+      </c>
+      <c r="B57">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>6.1964581010000002</v>
+      </c>
+      <c r="B58">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>3.3332018849999998</v>
+      </c>
+      <c r="B59">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>2.6012251380000002</v>
+      </c>
+      <c r="B60">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>4.9028096200000002</v>
+      </c>
+      <c r="B61">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>3.1560180189999998</v>
+      </c>
+      <c r="B62">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>3.0310988430000001</v>
+      </c>
+      <c r="B63">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>0.53660035100000003</v>
+      </c>
+      <c r="B64">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A65">
+        <v>2.5749707220000002</v>
+      </c>
+      <c r="B65">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A66">
+        <v>5.6602427960000004</v>
+      </c>
+      <c r="B66">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A67">
+        <v>2.8268756869999998</v>
+      </c>
+      <c r="B67">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A68">
+        <v>6.2973222729999998</v>
+      </c>
+      <c r="B68">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A69">
+        <v>4.5757789610000001</v>
+      </c>
+      <c r="B69">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A70">
+        <v>5.5141551489999996</v>
+      </c>
+      <c r="B70">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A71">
+        <v>4.7797470090000003</v>
+      </c>
+      <c r="B71">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A72">
+        <v>0.65696096400000004</v>
+      </c>
+      <c r="B72">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A73">
+        <v>5.1471760270000004</v>
+      </c>
+      <c r="B73">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A74">
+        <v>0.51397299799999996</v>
+      </c>
+      <c r="B74">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A75">
+        <v>1.6836881640000001</v>
+      </c>
+      <c r="B75">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A76">
+        <v>4.4172637459999997</v>
+      </c>
+      <c r="B76">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A77">
+        <v>8.682694197</v>
+      </c>
+      <c r="B77">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <v>3.7351546290000002</v>
+      </c>
+      <c r="B78">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <v>1.6930863860000001</v>
+      </c>
+      <c r="B79">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <v>13.07180381</v>
+      </c>
+      <c r="B80">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>8.1121964450000004</v>
+      </c>
+      <c r="B81">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <v>20.609759570000001</v>
+      </c>
+      <c r="B82">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <v>1.9269628519999999</v>
+      </c>
+      <c r="B83">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A84">
+        <v>1.5524311070000001</v>
+      </c>
+      <c r="B84">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A85">
+        <v>8.7286210059999991</v>
+      </c>
+      <c r="B85">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A86">
+        <v>2.1415448189999999</v>
+      </c>
+      <c r="B86">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A87">
+        <v>3.720644236</v>
+      </c>
+      <c r="B87">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A88">
+        <v>3.1498832700000001</v>
+      </c>
+      <c r="B88">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A89">
+        <v>15.16824269</v>
+      </c>
+      <c r="B89">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A90">
+        <v>4.8874592779999997</v>
+      </c>
+      <c r="B90">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A91">
+        <v>9.8948762420000005</v>
+      </c>
+      <c r="B91">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A92">
+        <v>7.1146841050000003</v>
+      </c>
+      <c r="B92">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A93">
+        <v>12.11026287</v>
+      </c>
+      <c r="B93">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A94">
+        <v>5.1486558909999998</v>
+      </c>
+      <c r="B94">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A95">
+        <v>11.7524569</v>
+      </c>
+      <c r="B95">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A96">
+        <v>8.2692556380000006</v>
+      </c>
+      <c r="B96">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A97">
+        <v>5.7043583389999997</v>
+      </c>
+      <c r="B97">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A98">
+        <v>3.0847225190000001</v>
+      </c>
+      <c r="B98">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A99">
+        <v>3.153715134</v>
+      </c>
+      <c r="B99">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A100">
+        <v>2.3546760080000002</v>
+      </c>
+      <c r="B100">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32CE6024-17ED-4D0B-9C09-169A4D652D31}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
@@ -9589,7 +12751,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE3B6A1-53E3-48B8-947C-A15ED8820269}">
   <dimension ref="A1:J98"/>
   <sheetViews>
@@ -10725,7 +13887,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7412353C-36B4-4188-9488-ED307084059D}">
   <dimension ref="A1:J96"/>
   <sheetViews>
@@ -11845,7 +15007,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081AC988-56DA-434D-BEB0-C61262DEAA46}">
   <dimension ref="A1:J113"/>
   <sheetViews>

--- a/4x4x4solver_v6/analytics.xlsx
+++ b/4x4x4solver_v6/analytics.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\Solvour\4x4x4solver_v6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5E67C5-34CD-4B54-A8FD-84FB9A18D3DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55E12AA-F076-44BB-A34A-012BCA4A6604}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{946BFEEE-BBBF-4482-BF8B-5542A0A8C7AB}"/>
+    <workbookView xWindow="7545" yWindow="2685" windowWidth="21600" windowHeight="11325" xr2:uid="{946BFEEE-BBBF-4482-BF8B-5542A0A8C7AB}"/>
   </bookViews>
   <sheets>
-    <sheet name="NyanyanFunc改善0.5-5-3-3-3-5" sheetId="5" r:id="rId1"/>
-    <sheet name="IDA改善0.5-5-3-3-3-5" sheetId="4" r:id="rId2"/>
-    <sheet name="0.5-5-3-3-3-5_100個" sheetId="3" r:id="rId3"/>
-    <sheet name="0.5-5-2-2-2-4" sheetId="2" r:id="rId4"/>
-    <sheet name="0.5-5-3-3-3-5" sheetId="1" r:id="rId5"/>
+    <sheet name="NyanyanFunc改善6乗" sheetId="6" r:id="rId1"/>
+    <sheet name="NyanyanFunc改善0.5-5-3-3-3-5" sheetId="5" r:id="rId2"/>
+    <sheet name="IDA改善0.5-5-3-3-3-5" sheetId="4" r:id="rId3"/>
+    <sheet name="0.5-5-3-3-3-5_100個" sheetId="3" r:id="rId4"/>
+    <sheet name="0.5-5-2-2-2-4" sheetId="2" r:id="rId5"/>
+    <sheet name="0.5-5-3-3-3-5" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="16">
   <si>
     <t>時間</t>
     <rPh sb="0" eb="2">
@@ -311,7 +312,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'NyanyanFunc改善0.5-5-3-3-3-5'!$F$10</c:f>
+              <c:f>NyanyanFunc改善6乗!$F$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -332,7 +333,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'NyanyanFunc改善0.5-5-3-3-3-5'!$D$11:$D$28</c:f>
+              <c:f>NyanyanFunc改善6乗!$D$11:$D$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -395,60 +396,60 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'NyanyanFunc改善0.5-5-3-3-3-5'!$F$11:$F$28</c:f>
+              <c:f>NyanyanFunc改善6乗!$F$11:$F$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>16</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0</c:v>
@@ -458,7 +459,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C375-4F5E-8EF0-F2F325F1BFAA}"/>
+              <c16:uniqueId val="{00000000-EA8A-4514-BB83-79C1E4AAFFEB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -666,6 +667,809 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>手数</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0.5-5-2-2-2-4'!$J$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>カウント</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'0.5-5-2-2-2-4'!$H$11:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'0.5-5-2-2-2-4'!$J$11:$J$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4A8E-4809-94D2-96C60C40D888}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="685893168"/>
+        <c:axId val="685897760"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="685893168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="685897760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="685897760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="685893168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>時間</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0.5-5-3-3-3-5'!$F$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>カウント</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'0.5-5-3-3-3-5'!$D$11:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'0.5-5-3-3-3-5'!$F$11:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7A29-4D75-93DC-6E7FCFA32ADF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="514155824"/>
+        <c:axId val="514154840"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="514155824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="514154840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="514154840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="514155824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -1109,7 +1913,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'NyanyanFunc改善0.5-5-3-3-3-5'!$J$10</c:f>
+              <c:f>NyanyanFunc改善6乗!$J$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1130,7 +1934,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'NyanyanFunc改善0.5-5-3-3-3-5'!$H$11:$H$17</c:f>
+              <c:f>NyanyanFunc改善6乗!$H$11:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1160,7 +1964,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'NyanyanFunc改善0.5-5-3-3-3-5'!$J$11:$J$17</c:f>
+              <c:f>NyanyanFunc改善6乗!$J$11:$J$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1168,29 +1972,29 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DD36-4DF7-BCD2-E3876BE7A137}"/>
+              <c16:uniqueId val="{00000000-F8A8-431B-8DB4-5F337A70EAF2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1478,7 +2282,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'IDA改善0.5-5-3-3-3-5'!$F$10</c:f>
+              <c:f>'NyanyanFunc改善0.5-5-3-3-3-5'!$F$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1499,7 +2303,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'IDA改善0.5-5-3-3-3-5'!$D$11:$D$28</c:f>
+              <c:f>'NyanyanFunc改善0.5-5-3-3-3-5'!$D$11:$D$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -1562,60 +2366,60 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'IDA改善0.5-5-3-3-3-5'!$F$11:$F$28</c:f>
+              <c:f>'NyanyanFunc改善0.5-5-3-3-3-5'!$F$11:$F$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0</c:v>
@@ -1625,7 +2429,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C72B-46CA-8AD9-52BF21570C3D}"/>
+              <c16:uniqueId val="{00000000-C375-4F5E-8EF0-F2F325F1BFAA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1913,7 +2717,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'IDA改善0.5-5-3-3-3-5'!$J$10</c:f>
+              <c:f>'NyanyanFunc改善0.5-5-3-3-3-5'!$J$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1934,7 +2738,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'IDA改善0.5-5-3-3-3-5'!$H$11:$H$17</c:f>
+              <c:f>'NyanyanFunc改善0.5-5-3-3-3-5'!$H$11:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1964,7 +2768,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'IDA改善0.5-5-3-3-3-5'!$J$11:$J$17</c:f>
+              <c:f>'NyanyanFunc改善0.5-5-3-3-3-5'!$J$11:$J$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1972,19 +2776,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2</c:v>
@@ -1994,7 +2798,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A5AB-4557-9DFB-95ABA2AE1941}"/>
+              <c16:uniqueId val="{00000000-DD36-4DF7-BCD2-E3876BE7A137}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2282,7 +3086,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'0.5-5-3-3-3-5_100個'!$F$10</c:f>
+              <c:f>'IDA改善0.5-5-3-3-3-5'!$F$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2303,7 +3107,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'0.5-5-3-3-3-5_100個'!$D$11:$D$28</c:f>
+              <c:f>'IDA改善0.5-5-3-3-3-5'!$D$11:$D$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -2366,70 +3170,70 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'0.5-5-3-3-3-5_100個'!$F$11:$F$28</c:f>
+              <c:f>'IDA改善0.5-5-3-3-3-5'!$F$11:$F$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DBE8-4610-A3DF-0C044628D855}"/>
+              <c16:uniqueId val="{00000000-C72B-46CA-8AD9-52BF21570C3D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2442,11 +3246,12 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="514155824"/>
-        <c:axId val="514154840"/>
+        <c:overlap val="-27"/>
+        <c:axId val="617242032"/>
+        <c:axId val="617243672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="514155824"/>
+        <c:axId val="617242032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2489,7 +3294,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514154840"/>
+        <c:crossAx val="617243672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2497,7 +3302,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="514154840"/>
+        <c:axId val="617243672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2548,7 +3353,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514155824"/>
+        <c:crossAx val="617242032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2716,7 +3521,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'0.5-5-3-3-3-5_100個'!$J$10</c:f>
+              <c:f>'IDA改善0.5-5-3-3-3-5'!$J$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2737,7 +3542,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'0.5-5-3-3-3-5_100個'!$H$11:$H$17</c:f>
+              <c:f>'IDA改善0.5-5-3-3-3-5'!$H$11:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2767,37 +3572,37 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'0.5-5-3-3-3-5_100個'!$J$11:$J$17</c:f>
+              <c:f>'IDA改善0.5-5-3-3-3-5'!$J$11:$J$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E9C4-422F-AABA-14FF9A86B3BC}"/>
+              <c16:uniqueId val="{00000000-A5AB-4557-9DFB-95ABA2AE1941}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2811,11 +3616,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="685893168"/>
-        <c:axId val="685897760"/>
+        <c:axId val="617230552"/>
+        <c:axId val="617229568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="685893168"/>
+        <c:axId val="617230552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2858,7 +3663,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="685897760"/>
+        <c:crossAx val="617229568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2866,7 +3671,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="685897760"/>
+        <c:axId val="617229568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2917,7 +3722,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="685893168"/>
+        <c:crossAx val="617230552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3085,7 +3890,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'0.5-5-2-2-2-4'!$F$10</c:f>
+              <c:f>'0.5-5-3-3-3-5_100個'!$F$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3106,7 +3911,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'0.5-5-2-2-2-4'!$D$11:$D$28</c:f>
+              <c:f>'0.5-5-3-3-3-5_100個'!$D$11:$D$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -3169,60 +3974,60 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'0.5-5-2-2-2-4'!$F$11:$F$28</c:f>
+              <c:f>'0.5-5-3-3-3-5_100個'!$F$11:$F$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1</c:v>
@@ -3232,7 +4037,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3379-44E5-9DD9-9AB36C638C22}"/>
+              <c16:uniqueId val="{00000000-DBE8-4610-A3DF-0C044628D855}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3519,7 +4324,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'0.5-5-2-2-2-4'!$J$10</c:f>
+              <c:f>'0.5-5-3-3-3-5_100個'!$J$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3540,7 +4345,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'0.5-5-2-2-2-4'!$H$11:$H$17</c:f>
+              <c:f>'0.5-5-3-3-3-5_100個'!$H$11:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3570,27 +4375,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'0.5-5-2-2-2-4'!$J$11:$J$17</c:f>
+              <c:f>'0.5-5-3-3-3-5_100個'!$J$11:$J$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -3600,7 +4405,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4A8E-4809-94D2-96C60C40D888}"/>
+              <c16:uniqueId val="{00000000-E9C4-422F-AABA-14FF9A86B3BC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3888,7 +4693,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'0.5-5-3-3-3-5'!$F$10</c:f>
+              <c:f>'0.5-5-2-2-2-4'!$F$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3909,7 +4714,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'0.5-5-3-3-3-5'!$D$11:$D$28</c:f>
+              <c:f>'0.5-5-2-2-2-4'!$D$11:$D$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -3972,51 +4777,51 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'0.5-5-3-3-3-5'!$F$11:$F$28</c:f>
+              <c:f>'0.5-5-2-2-2-4'!$F$11:$F$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2</c:v>
@@ -4025,7 +4830,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1</c:v>
@@ -4035,7 +4840,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7A29-4D75-93DC-6E7FCFA32ADF}"/>
+              <c16:uniqueId val="{00000000-3379-44E5-9DD9-9AB36C638C22}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4282,6 +5087,86 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5647,7 +6532,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6150,7 +7035,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6653,7 +7538,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7156,7 +8041,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7659,7 +8544,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8162,7 +9047,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8665,7 +9550,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9168,7 +10053,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9671,7 +10556,1094 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>519112</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>290512</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E17E20B-C800-4931-A7EE-AEEBA82314FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>128587</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>585787</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{057A3AE4-8037-4DF8-910C-5C9268A1B6C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9752,7 +11724,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9829,7 +11801,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9910,7 +11882,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9991,7 +11963,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10364,10 +12336,1200 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E408AD1-1492-4321-8C08-6996CBCFF433}">
+  <dimension ref="A1:J100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>4.3452639579772896</v>
+      </c>
+      <c r="B2">
+        <v>60</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2.8417882919311501</v>
+      </c>
+      <c r="B3">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <f>AVERAGE(A:A)</f>
+        <v>5.8736468397005552</v>
+      </c>
+      <c r="F3">
+        <f>AVERAGE(B:B)</f>
+        <v>57.030303030303031</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <f>COUNTIFS(A:A,"&lt;10")/COUNT(A:A)*100</f>
+        <v>81.818181818181827</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>5.7069559097290004</v>
+      </c>
+      <c r="B4">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <f>_xlfn.STDEV.S(A:A)</f>
+        <v>4.9770557513761124</v>
+      </c>
+      <c r="F4">
+        <f>_xlfn.STDEV.S(B:B)</f>
+        <v>1.9869705453408069</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4">
+        <f>COUNTIFS(A:A,"&lt;5")/COUNT(A:A)*100</f>
+        <v>58.585858585858588</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>3.44187140464782</v>
+      </c>
+      <c r="B5">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <f>MAX(A:A)</f>
+        <v>27.122862577438301</v>
+      </c>
+      <c r="F5">
+        <f>MAX(B:B)</f>
+        <v>62</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5">
+        <f>COUNTIFS(A:A,"&lt;3")/COUNT(A:A)*100</f>
+        <v>34.343434343434339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>15.220680713653501</v>
+      </c>
+      <c r="B6">
+        <v>59</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <f>MEDIAN(A:A)</f>
+        <v>4.3452639579772896</v>
+      </c>
+      <c r="F6">
+        <f>MEDIAN(B:B)</f>
+        <v>57</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6">
+        <f>COUNTIFS(A:A,"&lt;2")/COUNT(A:A)*100</f>
+        <v>21.212121212121211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>3.6354522705078098</v>
+      </c>
+      <c r="B7">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <f>MIN(A:A)</f>
+        <v>0.70958662033080999</v>
+      </c>
+      <c r="F7">
+        <f>MIN(B:B)</f>
+        <v>53</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7">
+        <f>COUNTIFS(A:A,"&lt;1")/COUNT(A:A)*100</f>
+        <v>3.0303030303030303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>1.99961066246032</v>
+      </c>
+      <c r="B8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>8.8314189910888601</v>
+      </c>
+      <c r="B9">
+        <v>60</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>7.2383360862731898</v>
+      </c>
+      <c r="B10">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>4.3240866661071697</v>
+      </c>
+      <c r="B11">
+        <v>58</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <f>COUNTIFS(A:A,"&lt;"&amp;E11,A:A,"&gt;="&amp;D11)</f>
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>50</v>
+      </c>
+      <c r="I11">
+        <v>52</v>
+      </c>
+      <c r="J11">
+        <f t="shared" ref="J11:J17" si="0">COUNTIFS(B:B,"&lt;"&amp;I11,B:B,"&gt;="&amp;H11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>8.0890822410583496</v>
+      </c>
+      <c r="B12">
+        <v>60</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ref="F12:F28" si="1">COUNTIFS(A:A,"&lt;"&amp;E12,A:A,"&gt;="&amp;D12)</f>
+        <v>18</v>
+      </c>
+      <c r="H12">
+        <v>52</v>
+      </c>
+      <c r="I12">
+        <v>54</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>1.63602590560913</v>
+      </c>
+      <c r="B13">
+        <v>56</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="H13">
+        <v>54</v>
+      </c>
+      <c r="I13">
+        <v>56</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>7.7142477035522399</v>
+      </c>
+      <c r="B14">
+        <v>57</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="H14">
+        <v>56</v>
+      </c>
+      <c r="I14">
+        <v>58</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>6.8050298690795898</v>
+      </c>
+      <c r="B15">
+        <v>55</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="H15">
+        <v>58</v>
+      </c>
+      <c r="I15">
+        <v>60</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>2.1729981899261399</v>
+      </c>
+      <c r="B16">
+        <v>53</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H16">
+        <v>60</v>
+      </c>
+      <c r="I16">
+        <v>62</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>4.7992892265319798</v>
+      </c>
+      <c r="B17">
+        <v>59</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <v>62</v>
+      </c>
+      <c r="I17">
+        <v>64</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>1.4553596973419101</v>
+      </c>
+      <c r="B18">
+        <v>56</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>10.5785882472991</v>
+      </c>
+      <c r="B19">
+        <v>59</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>3.4953818321228001</v>
+      </c>
+      <c r="B20">
+        <v>59</v>
+      </c>
+      <c r="D20">
+        <v>9</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>1.5499455928802399</v>
+      </c>
+      <c r="B21">
+        <v>53</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>11</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>3.43201351165771</v>
+      </c>
+      <c r="B22">
+        <v>59</v>
+      </c>
+      <c r="D22">
+        <v>11</v>
+      </c>
+      <c r="E22">
+        <v>12</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>10.6784536838531</v>
+      </c>
+      <c r="B23">
+        <v>60</v>
+      </c>
+      <c r="D23">
+        <v>12</v>
+      </c>
+      <c r="E23">
+        <v>13</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>7.0700192451476997</v>
+      </c>
+      <c r="B24">
+        <v>58</v>
+      </c>
+      <c r="D24">
+        <v>13</v>
+      </c>
+      <c r="E24">
+        <v>14</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>1.5587809085845901</v>
+      </c>
+      <c r="B25">
+        <v>57</v>
+      </c>
+      <c r="D25">
+        <v>14</v>
+      </c>
+      <c r="E25">
+        <v>15</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>4.8764514923095703</v>
+      </c>
+      <c r="B26">
+        <v>58</v>
+      </c>
+      <c r="D26">
+        <v>15</v>
+      </c>
+      <c r="E26">
+        <v>16</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>7.6687700748443604</v>
+      </c>
+      <c r="B27">
+        <v>57</v>
+      </c>
+      <c r="D27">
+        <v>16</v>
+      </c>
+      <c r="E27">
+        <v>17</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>4.4198570251464799</v>
+      </c>
+      <c r="B28">
+        <v>58</v>
+      </c>
+      <c r="D28">
+        <v>17</v>
+      </c>
+      <c r="E28">
+        <v>18</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>2.1606040000915501</v>
+      </c>
+      <c r="B29">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>4.2377526760101301</v>
+      </c>
+      <c r="B30">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>1.68630814552307</v>
+      </c>
+      <c r="B31">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>2.5168492794036799</v>
+      </c>
+      <c r="B32">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>0.79484200477600098</v>
+      </c>
+      <c r="B33">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>2.0347664356231601</v>
+      </c>
+      <c r="B34">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>2.2523608207702601</v>
+      </c>
+      <c r="B35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>6.1925766468048096</v>
+      </c>
+      <c r="B36">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>7.7368960380554199</v>
+      </c>
+      <c r="B37">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>1.9669446945190401</v>
+      </c>
+      <c r="B38">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>6.4465808868408203</v>
+      </c>
+      <c r="B39">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>27.122862577438301</v>
+      </c>
+      <c r="B40">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>15.0712690353393</v>
+      </c>
+      <c r="B41">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>4.7133007049560502</v>
+      </c>
+      <c r="B42">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>19.034687757492001</v>
+      </c>
+      <c r="B43">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>7.1092724800109801</v>
+      </c>
+      <c r="B44">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>5.5410695075988698</v>
+      </c>
+      <c r="B45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>6.4005310535430899</v>
+      </c>
+      <c r="B46">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>3.5544133186340301</v>
+      </c>
+      <c r="B47">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>4.8496496677398602</v>
+      </c>
+      <c r="B48">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>7.7552716732025102</v>
+      </c>
+      <c r="B49">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>3.9231882095336901</v>
+      </c>
+      <c r="B50">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>4.7759866714477504</v>
+      </c>
+      <c r="B51">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>1.66432261466979</v>
+      </c>
+      <c r="B52">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>2.6368422508239702</v>
+      </c>
+      <c r="B53">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>3.0377006530761701</v>
+      </c>
+      <c r="B54">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>1.43621158599853</v>
+      </c>
+      <c r="B55">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>4.9304602146148602</v>
+      </c>
+      <c r="B56">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>5.0727472305297798</v>
+      </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>1.7505478858947701</v>
+      </c>
+      <c r="B58">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>2.1403007507324201</v>
+      </c>
+      <c r="B59">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>2.0880420207977202</v>
+      </c>
+      <c r="B60">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>0.85182309150695801</v>
+      </c>
+      <c r="B61">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>1.8062338829040501</v>
+      </c>
+      <c r="B62">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>10.1004340648651</v>
+      </c>
+      <c r="B63">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>3.4900147914886399</v>
+      </c>
+      <c r="B64">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A65">
+        <v>7.43428206443786</v>
+      </c>
+      <c r="B65">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A66">
+        <v>12.219568729400599</v>
+      </c>
+      <c r="B66">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A67">
+        <v>11.8883209228515</v>
+      </c>
+      <c r="B67">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A68">
+        <v>5.1792259216308496</v>
+      </c>
+      <c r="B68">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A69">
+        <v>13.445550680160499</v>
+      </c>
+      <c r="B69">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A70">
+        <v>2.63355135917663</v>
+      </c>
+      <c r="B70">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A71">
+        <v>1.6149806976318299</v>
+      </c>
+      <c r="B71">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A72">
+        <v>3.3535418510436998</v>
+      </c>
+      <c r="B72">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A73">
+        <v>21.8808767795562</v>
+      </c>
+      <c r="B73">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A74">
+        <v>5.2770540714263898</v>
+      </c>
+      <c r="B74">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A75">
+        <v>19.860615968704199</v>
+      </c>
+      <c r="B75">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A76">
+        <v>2.9608871936797998</v>
+      </c>
+      <c r="B76">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A77">
+        <v>1.74435830116271</v>
+      </c>
+      <c r="B77">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <v>7.6622357368469203</v>
+      </c>
+      <c r="B78">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <v>3.8011417388915998</v>
+      </c>
+      <c r="B79">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <v>11.6080355644226</v>
+      </c>
+      <c r="B80">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>15.091246843338</v>
+      </c>
+      <c r="B81">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <v>1.9846937656402499</v>
+      </c>
+      <c r="B82">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <v>12.660046339035</v>
+      </c>
+      <c r="B83">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A84">
+        <v>1.9272656440734801</v>
+      </c>
+      <c r="B84">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A85">
+        <v>3.3516533374786301</v>
+      </c>
+      <c r="B85">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A86">
+        <v>11.7159574031829</v>
+      </c>
+      <c r="B86">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A87">
+        <v>1.5788424015045099</v>
+      </c>
+      <c r="B87">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A88">
+        <v>1.69723749160766</v>
+      </c>
+      <c r="B88">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A89">
+        <v>2.2348208427429199</v>
+      </c>
+      <c r="B89">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A90">
+        <v>5.2457349300384504</v>
+      </c>
+      <c r="B90">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A91">
+        <v>0.70958662033080999</v>
+      </c>
+      <c r="B91">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A92">
+        <v>4.3431150913238499</v>
+      </c>
+      <c r="B92">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A93">
+        <v>13.924598455429001</v>
+      </c>
+      <c r="B93">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A94">
+        <v>12.1724722385406</v>
+      </c>
+      <c r="B94">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A95">
+        <v>2.0109586715698198</v>
+      </c>
+      <c r="B95">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A96">
+        <v>6.4581139087677002</v>
+      </c>
+      <c r="B96">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A97">
+        <v>1.6453559398651101</v>
+      </c>
+      <c r="B97">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A98">
+        <v>4.1477842330932599</v>
+      </c>
+      <c r="B98">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A99">
+        <v>6.6194293498992902</v>
+      </c>
+      <c r="B99">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A100">
+        <v>4.9384713172912598</v>
+      </c>
+      <c r="B100">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0297C02-86D5-4394-99B2-8731B3236664}">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
@@ -11553,7 +14715,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32CE6024-17ED-4D0B-9C09-169A4D652D31}">
   <dimension ref="A1:J101"/>
   <sheetViews>
@@ -12751,7 +15913,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE3B6A1-53E3-48B8-947C-A15ED8820269}">
   <dimension ref="A1:J98"/>
   <sheetViews>
@@ -13887,7 +17049,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7412353C-36B4-4188-9488-ED307084059D}">
   <dimension ref="A1:J96"/>
   <sheetViews>
@@ -15007,7 +18169,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081AC988-56DA-434D-BEB0-C61262DEAA46}">
   <dimension ref="A1:J113"/>
   <sheetViews>

--- a/4x4x4solver_v6/analytics.xlsx
+++ b/4x4x4solver_v6/analytics.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\Solvour\4x4x4solver_v6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55E12AA-F076-44BB-A34A-012BCA4A6604}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988B803C-CDF6-4BF9-BAF5-CB8731A7C48F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7545" yWindow="2685" windowWidth="21600" windowHeight="11325" xr2:uid="{946BFEEE-BBBF-4482-BF8B-5542A0A8C7AB}"/>
+    <workbookView xWindow="7005" yWindow="735" windowWidth="21600" windowHeight="11325" xr2:uid="{946BFEEE-BBBF-4482-BF8B-5542A0A8C7AB}"/>
   </bookViews>
   <sheets>
-    <sheet name="NyanyanFunc改善6乗" sheetId="6" r:id="rId1"/>
-    <sheet name="NyanyanFunc改善0.5-5-3-3-3-5" sheetId="5" r:id="rId2"/>
-    <sheet name="IDA改善0.5-5-3-3-3-5" sheetId="4" r:id="rId3"/>
-    <sheet name="0.5-5-3-3-3-5_100個" sheetId="3" r:id="rId4"/>
-    <sheet name="0.5-5-2-2-2-4" sheetId="2" r:id="rId5"/>
-    <sheet name="0.5-5-3-3-3-5" sheetId="1" r:id="rId6"/>
+    <sheet name="NyanyanFunc_-1.5-4-2事前計算" sheetId="8" r:id="rId1"/>
+    <sheet name="NyanyanFunc_-1.5-4-2" sheetId="7" r:id="rId2"/>
+    <sheet name="NyanyanFunc改善6乗" sheetId="6" r:id="rId3"/>
+    <sheet name="NyanyanFunc改善0.5-5-3-3-3-5" sheetId="5" r:id="rId4"/>
+    <sheet name="IDA改善0.5-5-3-3-3-5" sheetId="4" r:id="rId5"/>
+    <sheet name="0.5-5-3-3-3-5_100個" sheetId="3" r:id="rId6"/>
+    <sheet name="0.5-5-2-2-2-4" sheetId="2" r:id="rId7"/>
+    <sheet name="0.5-5-3-3-3-5" sheetId="1" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="16">
   <si>
     <t>時間</t>
     <rPh sb="0" eb="2">
@@ -312,7 +314,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>NyanyanFunc改善6乗!$F$10</c:f>
+              <c:f>'NyanyanFunc_-1.5-4-2事前計算'!$F$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -333,10 +335,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>NyanyanFunc改善6乗!$D$11:$D$28</c:f>
+              <c:f>'NyanyanFunc_-1.5-4-2事前計算'!$D$11:$D$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -390,68 +392,146 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>NyanyanFunc改善6乗!$F$11:$F$28</c:f>
+              <c:f>'NyanyanFunc_-1.5-4-2事前計算'!$F$11:$F$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -459,7 +539,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EA8A-4514-BB83-79C1E4AAFFEB}"/>
+              <c16:uniqueId val="{00000000-FDB3-462F-B889-F4BB0AA6802C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -747,6 +827,1612 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>'IDA改善0.5-5-3-3-3-5'!$J$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>カウント</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'IDA改善0.5-5-3-3-3-5'!$H$11:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'IDA改善0.5-5-3-3-3-5'!$J$11:$J$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A5AB-4557-9DFB-95ABA2AE1941}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="617230552"/>
+        <c:axId val="617229568"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="617230552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="617229568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="617229568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="617230552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>時間</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0.5-5-3-3-3-5_100個'!$F$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>カウント</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'0.5-5-3-3-3-5_100個'!$D$11:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'0.5-5-3-3-3-5_100個'!$F$11:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DBE8-4610-A3DF-0C044628D855}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="514155824"/>
+        <c:axId val="514154840"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="514155824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="514154840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="514154840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="514155824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>手数</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0.5-5-3-3-3-5_100個'!$J$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>カウント</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'0.5-5-3-3-3-5_100個'!$H$11:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'0.5-5-3-3-3-5_100個'!$J$11:$J$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E9C4-422F-AABA-14FF9A86B3BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="685893168"/>
+        <c:axId val="685897760"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="685893168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="685897760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="685897760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="685893168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>時間</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0.5-5-2-2-2-4'!$F$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>カウント</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'0.5-5-2-2-2-4'!$D$11:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'0.5-5-2-2-2-4'!$F$11:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3379-44E5-9DD9-9AB36C638C22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="514155824"/>
+        <c:axId val="514154840"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="514155824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="514154840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="514154840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="514155824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>手数</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>'0.5-5-2-2-2-4'!$J$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -1035,7 +2721,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -1469,7 +3155,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -1913,7 +3599,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>NyanyanFunc改善6乗!$J$10</c:f>
+              <c:f>'NyanyanFunc_-1.5-4-2事前計算'!$J$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1934,29 +3620,32 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>NyanyanFunc改善6乗!$H$11:$H$17</c:f>
+              <c:f>'NyanyanFunc_-1.5-4-2事前計算'!$H$11:$H$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>52</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>58</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>62</c:v>
                 </c:pt>
               </c:numCache>
@@ -1964,29 +3653,32 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>NyanyanFunc改善6乗!$J$11:$J$17</c:f>
+              <c:f>'NyanyanFunc_-1.5-4-2事前計算'!$J$11:$J$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1994,7 +3686,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F8A8-431B-8DB4-5F337A70EAF2}"/>
+              <c16:uniqueId val="{00000000-7D25-4A74-876B-B98DF2A5AE6B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2282,7 +3974,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'NyanyanFunc改善0.5-5-3-3-3-5'!$F$10</c:f>
+              <c:f>'NyanyanFunc_-1.5-4-2'!$F$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2303,10 +3995,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'NyanyanFunc改善0.5-5-3-3-3-5'!$D$11:$D$28</c:f>
+              <c:f>'NyanyanFunc_-1.5-4-2'!$D$11:$D$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2360,60 +4052,99 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'NyanyanFunc改善0.5-5-3-3-3-5'!$F$11:$F$28</c:f>
+              <c:f>'NyanyanFunc_-1.5-4-2'!$F$11:$F$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1</c:v>
@@ -2422,6 +4153,45 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2429,7 +4199,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C375-4F5E-8EF0-F2F325F1BFAA}"/>
+              <c16:uniqueId val="{00000000-FA3E-457F-95CB-9FCEA8EFC3F0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2717,7 +4487,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'NyanyanFunc改善0.5-5-3-3-3-5'!$J$10</c:f>
+              <c:f>'NyanyanFunc_-1.5-4-2'!$J$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2738,7 +4508,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'NyanyanFunc改善0.5-5-3-3-3-5'!$H$11:$H$17</c:f>
+              <c:f>'NyanyanFunc_-1.5-4-2'!$H$11:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2768,37 +4538,37 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'NyanyanFunc改善0.5-5-3-3-3-5'!$J$11:$J$17</c:f>
+              <c:f>'NyanyanFunc_-1.5-4-2'!$J$11:$J$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DD36-4DF7-BCD2-E3876BE7A137}"/>
+              <c16:uniqueId val="{00000000-C324-4A22-89E1-FE0B92D396AF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3086,7 +4856,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'IDA改善0.5-5-3-3-3-5'!$F$10</c:f>
+              <c:f>NyanyanFunc改善6乗!$F$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3107,7 +4877,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'IDA改善0.5-5-3-3-3-5'!$D$11:$D$28</c:f>
+              <c:f>NyanyanFunc改善6乗!$D$11:$D$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -3170,57 +4940,57 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'IDA改善0.5-5-3-3-3-5'!$F$11:$F$28</c:f>
+              <c:f>NyanyanFunc改善6乗!$F$11:$F$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>14</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -3233,7 +5003,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C72B-46CA-8AD9-52BF21570C3D}"/>
+              <c16:uniqueId val="{00000000-EA8A-4514-BB83-79C1E4AAFFEB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3521,7 +5291,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'IDA改善0.5-5-3-3-3-5'!$J$10</c:f>
+              <c:f>NyanyanFunc改善6乗!$J$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3542,7 +5312,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'IDA改善0.5-5-3-3-3-5'!$H$11:$H$17</c:f>
+              <c:f>NyanyanFunc改善6乗!$H$11:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3572,7 +5342,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'IDA改善0.5-5-3-3-3-5'!$J$11:$J$17</c:f>
+              <c:f>NyanyanFunc改善6乗!$J$11:$J$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3580,29 +5350,29 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A5AB-4557-9DFB-95ABA2AE1941}"/>
+              <c16:uniqueId val="{00000000-F8A8-431B-8DB4-5F337A70EAF2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3890,7 +5660,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'0.5-5-3-3-3-5_100個'!$F$10</c:f>
+              <c:f>'NyanyanFunc改善0.5-5-3-3-3-5'!$F$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3911,7 +5681,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'0.5-5-3-3-3-5_100個'!$D$11:$D$28</c:f>
+              <c:f>'NyanyanFunc改善0.5-5-3-3-3-5'!$D$11:$D$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -3974,15 +5744,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'0.5-5-3-3-3-5_100個'!$F$11:$F$28</c:f>
+              <c:f>'NyanyanFunc改善0.5-5-3-3-3-5'!$F$11:$F$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>16</c:v>
@@ -3991,37 +5761,37 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1</c:v>
@@ -4030,14 +5800,14 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DBE8-4610-A3DF-0C044628D855}"/>
+              <c16:uniqueId val="{00000000-C375-4F5E-8EF0-F2F325F1BFAA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4050,11 +5820,12 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="514155824"/>
-        <c:axId val="514154840"/>
+        <c:overlap val="-27"/>
+        <c:axId val="617242032"/>
+        <c:axId val="617243672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="514155824"/>
+        <c:axId val="617242032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4097,7 +5868,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514154840"/>
+        <c:crossAx val="617243672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4105,7 +5876,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="514154840"/>
+        <c:axId val="617243672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4156,7 +5927,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514155824"/>
+        <c:crossAx val="617242032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4324,7 +6095,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'0.5-5-3-3-3-5_100個'!$J$10</c:f>
+              <c:f>'NyanyanFunc改善0.5-5-3-3-3-5'!$J$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4345,7 +6116,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'0.5-5-3-3-3-5_100個'!$H$11:$H$17</c:f>
+              <c:f>'NyanyanFunc改善0.5-5-3-3-3-5'!$H$11:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4375,37 +6146,37 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'0.5-5-3-3-3-5_100個'!$J$11:$J$17</c:f>
+              <c:f>'NyanyanFunc改善0.5-5-3-3-3-5'!$J$11:$J$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E9C4-422F-AABA-14FF9A86B3BC}"/>
+              <c16:uniqueId val="{00000000-DD36-4DF7-BCD2-E3876BE7A137}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4419,11 +6190,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="685893168"/>
-        <c:axId val="685897760"/>
+        <c:axId val="617230552"/>
+        <c:axId val="617229568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="685893168"/>
+        <c:axId val="617230552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4466,7 +6237,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="685897760"/>
+        <c:crossAx val="617229568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4474,7 +6245,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="685897760"/>
+        <c:axId val="617229568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4525,7 +6296,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="685893168"/>
+        <c:crossAx val="617230552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4693,7 +6464,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'0.5-5-2-2-2-4'!$F$10</c:f>
+              <c:f>'IDA改善0.5-5-3-3-3-5'!$F$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4714,7 +6485,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'0.5-5-2-2-2-4'!$D$11:$D$28</c:f>
+              <c:f>'IDA改善0.5-5-3-3-3-5'!$D$11:$D$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -4777,70 +6548,70 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'0.5-5-2-2-2-4'!$F$11:$F$28</c:f>
+              <c:f>'IDA改善0.5-5-3-3-3-5'!$F$11:$F$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3379-44E5-9DD9-9AB36C638C22}"/>
+              <c16:uniqueId val="{00000000-C72B-46CA-8AD9-52BF21570C3D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4853,11 +6624,12 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="514155824"/>
-        <c:axId val="514154840"/>
+        <c:overlap val="-27"/>
+        <c:axId val="617242032"/>
+        <c:axId val="617243672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="514155824"/>
+        <c:axId val="617242032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4900,7 +6672,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514154840"/>
+        <c:crossAx val="617243672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4908,7 +6680,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="514154840"/>
+        <c:axId val="617243672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4959,7 +6731,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514155824"/>
+        <c:crossAx val="617242032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5167,6 +6939,166 @@
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7538,7 +9470,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8041,7 +9973,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8544,7 +10476,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9047,7 +10979,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9550,7 +11482,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10053,7 +11985,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10556,7 +12488,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11059,7 +12991,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11562,7 +13494,2181 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>519112</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>290512</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1D622B0-0D1C-4477-AA33-6751DAA859B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>128587</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>585787</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9895B57-429F-497B-AF1F-62163064C233}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>519112</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>290512</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBC44C67-63A3-413C-83DA-E5B298BB8461}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>128587</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>585787</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7737F990-403A-4801-A0A4-F2B39D2772CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11643,7 +15749,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11724,7 +15830,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11801,7 +15907,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11882,7 +15988,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11963,7 +16069,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -12336,10 +16442,2668 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61244476-E78F-4674-BB85-2654562C3509}">
+  <dimension ref="A1:J101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>6.7632601259999996</v>
+      </c>
+      <c r="B2">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>16.760920049999999</v>
+      </c>
+      <c r="B3">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <f>AVERAGE(A:A)</f>
+        <v>4.6925912116899999</v>
+      </c>
+      <c r="F3">
+        <f>AVERAGE(B:B)</f>
+        <v>57</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <f>COUNTIFS(A:A,"&lt;10")/COUNT(A:A)*100</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>9.4131069180000004</v>
+      </c>
+      <c r="B4">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <f>_xlfn.STDEV.S(A:A)</f>
+        <v>3.7372827301792664</v>
+      </c>
+      <c r="F4">
+        <f>_xlfn.STDEV.S(B:B)</f>
+        <v>2.5266258891728279</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4">
+        <f>COUNTIFS(A:A,"&lt;5")/COUNT(A:A)*100</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4.5036983490000004</v>
+      </c>
+      <c r="B5">
+        <v>59</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <f>MAX(A:A)</f>
+        <v>16.760920049999999</v>
+      </c>
+      <c r="F5">
+        <f>MAX(B:B)</f>
+        <v>62</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5">
+        <f>COUNTIFS(A:A,"&lt;3")/COUNT(A:A)*100</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>3.6317396159999999</v>
+      </c>
+      <c r="B6">
+        <v>57</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <f>MEDIAN(A:A)</f>
+        <v>3.7312346695</v>
+      </c>
+      <c r="F6">
+        <f>MEDIAN(B:B)</f>
+        <v>58</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6">
+        <f>COUNTIFS(A:A,"&lt;2")/COUNT(A:A)*100</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>4.0986707210000004</v>
+      </c>
+      <c r="B7">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <f>MIN(A:A)</f>
+        <v>0.42582416499999998</v>
+      </c>
+      <c r="F7">
+        <f>MIN(B:B)</f>
+        <v>48</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7">
+        <f>COUNTIFS(A:A,"&lt;1")/COUNT(A:A)*100</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>14.580770490000001</v>
+      </c>
+      <c r="B8">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>3.0564515590000001</v>
+      </c>
+      <c r="B9">
+        <v>57</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>9.4743912219999995</v>
+      </c>
+      <c r="B10">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>4.9645981790000002</v>
+      </c>
+      <c r="B11">
+        <v>59</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <f>COUNTIFS(A:A,"&lt;"&amp;E11,A:A,"&gt;="&amp;D11)</f>
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <v>48</v>
+      </c>
+      <c r="I11">
+        <v>50</v>
+      </c>
+      <c r="J11">
+        <f>COUNTIFS(B:B,"&lt;"&amp;I11,B:B,"&gt;="&amp;H11)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>2.2063190939999999</v>
+      </c>
+      <c r="B12">
+        <v>57</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ref="F12:F41" si="0">COUNTIFS(A:A,"&lt;"&amp;E12,A:A,"&gt;="&amp;D12)</f>
+        <v>16</v>
+      </c>
+      <c r="H12">
+        <v>50</v>
+      </c>
+      <c r="I12">
+        <v>52</v>
+      </c>
+      <c r="J12">
+        <f>COUNTIFS(B:B,"&lt;"&amp;I12,B:B,"&gt;="&amp;H12)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>6.1036860940000004</v>
+      </c>
+      <c r="B13">
+        <v>58</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <v>52</v>
+      </c>
+      <c r="I13">
+        <v>54</v>
+      </c>
+      <c r="J13">
+        <f>COUNTIFS(B:B,"&lt;"&amp;I13,B:B,"&gt;="&amp;H13)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>1.8946342469999999</v>
+      </c>
+      <c r="B14">
+        <v>54</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H14">
+        <v>54</v>
+      </c>
+      <c r="I14">
+        <v>56</v>
+      </c>
+      <c r="J14">
+        <f>COUNTIFS(B:B,"&lt;"&amp;I14,B:B,"&gt;="&amp;H14)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>1.788733006</v>
+      </c>
+      <c r="B15">
+        <v>56</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H15">
+        <v>56</v>
+      </c>
+      <c r="I15">
+        <v>58</v>
+      </c>
+      <c r="J15">
+        <f>COUNTIFS(B:B,"&lt;"&amp;I15,B:B,"&gt;="&amp;H15)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>6.745800257</v>
+      </c>
+      <c r="B16">
+        <v>60</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>58</v>
+      </c>
+      <c r="I16">
+        <v>60</v>
+      </c>
+      <c r="J16">
+        <f>COUNTIFS(B:B,"&lt;"&amp;I16,B:B,"&gt;="&amp;H16)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>3.1516871449999999</v>
+      </c>
+      <c r="B17">
+        <v>55</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>60</v>
+      </c>
+      <c r="I17">
+        <v>62</v>
+      </c>
+      <c r="J17">
+        <f>COUNTIFS(B:B,"&lt;"&amp;I17,B:B,"&gt;="&amp;H17)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>2.1109046939999998</v>
+      </c>
+      <c r="B18">
+        <v>58</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <v>62</v>
+      </c>
+      <c r="I18">
+        <v>64</v>
+      </c>
+      <c r="J18">
+        <f>COUNTIFS(B:B,"&lt;"&amp;I18,B:B,"&gt;="&amp;H18)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>4.5773973459999997</v>
+      </c>
+      <c r="B19">
+        <v>56</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>6.3567807670000001</v>
+      </c>
+      <c r="B20">
+        <v>59</v>
+      </c>
+      <c r="D20">
+        <v>9</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>2.2824423309999999</v>
+      </c>
+      <c r="B21">
+        <v>55</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>11</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>1.1331310269999999</v>
+      </c>
+      <c r="B22">
+        <v>58</v>
+      </c>
+      <c r="D22">
+        <v>11</v>
+      </c>
+      <c r="E22">
+        <v>12</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>7.424744606</v>
+      </c>
+      <c r="B23">
+        <v>58</v>
+      </c>
+      <c r="D23">
+        <v>12</v>
+      </c>
+      <c r="E23">
+        <v>13</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>3.1731362340000002</v>
+      </c>
+      <c r="B24">
+        <v>56</v>
+      </c>
+      <c r="D24">
+        <v>13</v>
+      </c>
+      <c r="E24">
+        <v>14</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>3.7381472589999998</v>
+      </c>
+      <c r="B25">
+        <v>59</v>
+      </c>
+      <c r="D25">
+        <v>14</v>
+      </c>
+      <c r="E25">
+        <v>15</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>1.671537399</v>
+      </c>
+      <c r="B26">
+        <v>55</v>
+      </c>
+      <c r="D26">
+        <v>15</v>
+      </c>
+      <c r="E26">
+        <v>16</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>15.365587469999999</v>
+      </c>
+      <c r="B27">
+        <v>58</v>
+      </c>
+      <c r="D27">
+        <v>16</v>
+      </c>
+      <c r="E27">
+        <v>17</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>5.8878085609999999</v>
+      </c>
+      <c r="B28">
+        <v>59</v>
+      </c>
+      <c r="D28">
+        <v>17</v>
+      </c>
+      <c r="E28">
+        <v>18</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>0.95644140200000005</v>
+      </c>
+      <c r="B29">
+        <v>52</v>
+      </c>
+      <c r="D29">
+        <v>18</v>
+      </c>
+      <c r="E29">
+        <v>19</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>11.159157280000001</v>
+      </c>
+      <c r="B30">
+        <v>52</v>
+      </c>
+      <c r="D30">
+        <v>19</v>
+      </c>
+      <c r="E30">
+        <v>20</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>3.7275459770000001</v>
+      </c>
+      <c r="B31">
+        <v>54</v>
+      </c>
+      <c r="D31">
+        <v>20</v>
+      </c>
+      <c r="E31">
+        <v>21</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>2.033591747</v>
+      </c>
+      <c r="B32">
+        <v>58</v>
+      </c>
+      <c r="D32">
+        <v>21</v>
+      </c>
+      <c r="E32">
+        <v>22</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>0.79883384700000004</v>
+      </c>
+      <c r="B33">
+        <v>54</v>
+      </c>
+      <c r="D33">
+        <v>22</v>
+      </c>
+      <c r="E33">
+        <v>23</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>1.037189484</v>
+      </c>
+      <c r="B34">
+        <v>55</v>
+      </c>
+      <c r="D34">
+        <v>23</v>
+      </c>
+      <c r="E34">
+        <v>24</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>3.3685266970000001</v>
+      </c>
+      <c r="B35">
+        <v>57</v>
+      </c>
+      <c r="D35">
+        <v>24</v>
+      </c>
+      <c r="E35">
+        <v>25</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>2.2999093529999999</v>
+      </c>
+      <c r="B36">
+        <v>58</v>
+      </c>
+      <c r="D36">
+        <v>25</v>
+      </c>
+      <c r="E36">
+        <v>26</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>2.9434173110000001</v>
+      </c>
+      <c r="B37">
+        <v>57</v>
+      </c>
+      <c r="D37">
+        <v>26</v>
+      </c>
+      <c r="E37">
+        <v>27</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>7.9796872140000001</v>
+      </c>
+      <c r="B38">
+        <v>60</v>
+      </c>
+      <c r="D38">
+        <v>27</v>
+      </c>
+      <c r="E38">
+        <v>28</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>2.1453709600000002</v>
+      </c>
+      <c r="B39">
+        <v>57</v>
+      </c>
+      <c r="D39">
+        <v>28</v>
+      </c>
+      <c r="E39">
+        <v>29</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>3.3713059429999999</v>
+      </c>
+      <c r="B40">
+        <v>59</v>
+      </c>
+      <c r="D40">
+        <v>29</v>
+      </c>
+      <c r="E40">
+        <v>30</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>2.2150754930000001</v>
+      </c>
+      <c r="B41">
+        <v>54</v>
+      </c>
+      <c r="D41">
+        <v>30</v>
+      </c>
+      <c r="E41">
+        <v>31</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>1.6136469840000001</v>
+      </c>
+      <c r="B42">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>8.1875026230000003</v>
+      </c>
+      <c r="B43">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>10.293936970000001</v>
+      </c>
+      <c r="B44">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>1.960878849</v>
+      </c>
+      <c r="B45">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>8.5024175639999999</v>
+      </c>
+      <c r="B46">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>3.812704563</v>
+      </c>
+      <c r="B47">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>3.8987419609999998</v>
+      </c>
+      <c r="B48">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>1.1107757089999999</v>
+      </c>
+      <c r="B49">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>12.558805939999999</v>
+      </c>
+      <c r="B50">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>3.2757744789999999</v>
+      </c>
+      <c r="B51">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>3.7577583790000002</v>
+      </c>
+      <c r="B52">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>1.099586725</v>
+      </c>
+      <c r="B53">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>4.6062953469999997</v>
+      </c>
+      <c r="B54">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>3.7331337929999999</v>
+      </c>
+      <c r="B55">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>0.80684208899999998</v>
+      </c>
+      <c r="B56">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>3.5020627979999999</v>
+      </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>4.9008700850000002</v>
+      </c>
+      <c r="B58">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>1.6515443329999999</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>1.885248899</v>
+      </c>
+      <c r="B60">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>1.0364458560000001</v>
+      </c>
+      <c r="B61">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>0.95245194399999999</v>
+      </c>
+      <c r="B62">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>4.1536250109999999</v>
+      </c>
+      <c r="B63">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>7.9760911459999999</v>
+      </c>
+      <c r="B64">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A65">
+        <v>14.345128300000001</v>
+      </c>
+      <c r="B65">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A66">
+        <v>2.428971529</v>
+      </c>
+      <c r="B66">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A67">
+        <v>11.62711167</v>
+      </c>
+      <c r="B67">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A68">
+        <v>0.42582416499999998</v>
+      </c>
+      <c r="B68">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A69">
+        <v>4.4439182280000002</v>
+      </c>
+      <c r="B69">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A70">
+        <v>15.876436229999999</v>
+      </c>
+      <c r="B70">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A71">
+        <v>1.847062588</v>
+      </c>
+      <c r="B71">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A72">
+        <v>4.1149599549999998</v>
+      </c>
+      <c r="B72">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A73">
+        <v>1.6586902139999999</v>
+      </c>
+      <c r="B73">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A74">
+        <v>8.6640651230000003</v>
+      </c>
+      <c r="B74">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A75">
+        <v>0.62333369299999997</v>
+      </c>
+      <c r="B75">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A76">
+        <v>2.5709052090000002</v>
+      </c>
+      <c r="B76">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A77">
+        <v>1.7533054349999999</v>
+      </c>
+      <c r="B77">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <v>3.1348569390000001</v>
+      </c>
+      <c r="B78">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <v>5.1570503710000004</v>
+      </c>
+      <c r="B79">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <v>4.9615941049999996</v>
+      </c>
+      <c r="B80">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>1.358566999</v>
+      </c>
+      <c r="B81">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <v>8.4617974759999992</v>
+      </c>
+      <c r="B82">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <v>3.7293355460000002</v>
+      </c>
+      <c r="B83">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A84">
+        <v>6.3922083379999997</v>
+      </c>
+      <c r="B84">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A85">
+        <v>5.174641609</v>
+      </c>
+      <c r="B85">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A86">
+        <v>4.143860579</v>
+      </c>
+      <c r="B86">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A87">
+        <v>3.6280689239999999</v>
+      </c>
+      <c r="B87">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A88">
+        <v>3.2319841380000001</v>
+      </c>
+      <c r="B88">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A89">
+        <v>3.6982645989999998</v>
+      </c>
+      <c r="B89">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A90">
+        <v>13.742100949999999</v>
+      </c>
+      <c r="B90">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A91">
+        <v>4.2697160240000001</v>
+      </c>
+      <c r="B91">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A92">
+        <v>4.0604970460000001</v>
+      </c>
+      <c r="B92">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A93">
+        <v>0.83043003100000001</v>
+      </c>
+      <c r="B93">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A94">
+        <v>3.9668064119999999</v>
+      </c>
+      <c r="B94">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A95">
+        <v>4.059319973</v>
+      </c>
+      <c r="B95">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A96">
+        <v>0.65723514599999999</v>
+      </c>
+      <c r="B96">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A97">
+        <v>4.9837758540000001</v>
+      </c>
+      <c r="B97">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A98">
+        <v>2.4852256769999999</v>
+      </c>
+      <c r="B98">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A99">
+        <v>2.6184759139999998</v>
+      </c>
+      <c r="B99">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A100">
+        <v>4.1262435909999997</v>
+      </c>
+      <c r="B100">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A101">
+        <v>7.8340730670000003</v>
+      </c>
+      <c r="B101">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{695F31D0-80D6-4485-8DE1-E25D834D9677}">
+  <dimension ref="A1:J100"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>7.412359715</v>
+      </c>
+      <c r="B2">
+        <v>59</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>1.365059853</v>
+      </c>
+      <c r="B3">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <f>AVERAGE(A:A)</f>
+        <v>6.269035613797981</v>
+      </c>
+      <c r="F3">
+        <f>AVERAGE(B:B)</f>
+        <v>56.696969696969695</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <f>COUNTIFS(A:A,"&lt;10")/COUNT(A:A)*100</f>
+        <v>80.808080808080803</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>6.3972086910000003</v>
+      </c>
+      <c r="B4">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <f>_xlfn.STDEV.S(A:A)</f>
+        <v>5.4616562809529476</v>
+      </c>
+      <c r="F4">
+        <f>_xlfn.STDEV.S(B:B)</f>
+        <v>2.224421710928921</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4">
+        <f>COUNTIFS(A:A,"&lt;5")/COUNT(A:A)*100</f>
+        <v>53.535353535353536</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>11.36462641</v>
+      </c>
+      <c r="B5">
+        <v>57</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <f>MAX(A:A)</f>
+        <v>32.706374879999998</v>
+      </c>
+      <c r="F5">
+        <f>MAX(B:B)</f>
+        <v>61</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5">
+        <f>COUNTIFS(A:A,"&lt;3")/COUNT(A:A)*100</f>
+        <v>35.353535353535356</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>2.3475153450000001</v>
+      </c>
+      <c r="B6">
+        <v>57</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <f>MEDIAN(A:A)</f>
+        <v>4.3369395730000004</v>
+      </c>
+      <c r="F6">
+        <f>MEDIAN(B:B)</f>
+        <v>57</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6">
+        <f>COUNTIFS(A:A,"&lt;2")/COUNT(A:A)*100</f>
+        <v>14.14141414141414</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>13.21423864</v>
+      </c>
+      <c r="B7">
+        <v>61</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <f>MIN(A:A)</f>
+        <v>0.84876084299999999</v>
+      </c>
+      <c r="F7">
+        <f>MIN(B:B)</f>
+        <v>51</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7">
+        <f>COUNTIFS(A:A,"&lt;1")/COUNT(A:A)*100</f>
+        <v>1.0101010101010102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>3.8498227599999999</v>
+      </c>
+      <c r="B8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>2.2767190930000001</v>
+      </c>
+      <c r="B9">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>8.7859306339999996</v>
+      </c>
+      <c r="B10">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>3.0130338669999999</v>
+      </c>
+      <c r="B11">
+        <v>53</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <f>COUNTIFS(A:A,"&lt;"&amp;E11,A:A,"&gt;="&amp;D11)</f>
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>50</v>
+      </c>
+      <c r="I11">
+        <v>52</v>
+      </c>
+      <c r="J11">
+        <f t="shared" ref="J11:J17" si="0">COUNTIFS(B:B,"&lt;"&amp;I11,B:B,"&gt;="&amp;H11)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>7.8473420139999996</v>
+      </c>
+      <c r="B12">
+        <v>58</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ref="F12:F28" si="1">COUNTIFS(A:A,"&lt;"&amp;E12,A:A,"&gt;="&amp;D12)</f>
+        <v>13</v>
+      </c>
+      <c r="H12">
+        <v>52</v>
+      </c>
+      <c r="I12">
+        <v>54</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>10.73779774</v>
+      </c>
+      <c r="B13">
+        <v>60</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="H13">
+        <v>54</v>
+      </c>
+      <c r="I13">
+        <v>56</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>3.098920584</v>
+      </c>
+      <c r="B14">
+        <v>56</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="H14">
+        <v>56</v>
+      </c>
+      <c r="I14">
+        <v>58</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>32.706374879999998</v>
+      </c>
+      <c r="B15">
+        <v>59</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="H15">
+        <v>58</v>
+      </c>
+      <c r="I15">
+        <v>60</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>1.9678928849999999</v>
+      </c>
+      <c r="B16">
+        <v>56</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="H16">
+        <v>60</v>
+      </c>
+      <c r="I16">
+        <v>62</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>3.620854139</v>
+      </c>
+      <c r="B17">
+        <v>54</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <v>62</v>
+      </c>
+      <c r="I17">
+        <v>64</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>1.253986359</v>
+      </c>
+      <c r="B18">
+        <v>57</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>0.84876084299999999</v>
+      </c>
+      <c r="B19">
+        <v>52</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>2.7719819550000002</v>
+      </c>
+      <c r="B20">
+        <v>57</v>
+      </c>
+      <c r="D20">
+        <v>9</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>16.966693159999998</v>
+      </c>
+      <c r="B21">
+        <v>59</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>11</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>2.340769291</v>
+      </c>
+      <c r="B22">
+        <v>57</v>
+      </c>
+      <c r="D22">
+        <v>11</v>
+      </c>
+      <c r="E22">
+        <v>12</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>1.732739925</v>
+      </c>
+      <c r="B23">
+        <v>57</v>
+      </c>
+      <c r="D23">
+        <v>12</v>
+      </c>
+      <c r="E23">
+        <v>13</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>7.0059847829999997</v>
+      </c>
+      <c r="B24">
+        <v>58</v>
+      </c>
+      <c r="D24">
+        <v>13</v>
+      </c>
+      <c r="E24">
+        <v>14</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>3.6446528429999998</v>
+      </c>
+      <c r="B25">
+        <v>54</v>
+      </c>
+      <c r="D25">
+        <v>14</v>
+      </c>
+      <c r="E25">
+        <v>15</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>5.3558692929999996</v>
+      </c>
+      <c r="B26">
+        <v>57</v>
+      </c>
+      <c r="D26">
+        <v>15</v>
+      </c>
+      <c r="E26">
+        <v>16</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>1.76534009</v>
+      </c>
+      <c r="B27">
+        <v>57</v>
+      </c>
+      <c r="D27">
+        <v>16</v>
+      </c>
+      <c r="E27">
+        <v>17</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>4.0390524860000001</v>
+      </c>
+      <c r="B28">
+        <v>56</v>
+      </c>
+      <c r="D28">
+        <v>17</v>
+      </c>
+      <c r="E28">
+        <v>18</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>12.2548058</v>
+      </c>
+      <c r="B29">
+        <v>60</v>
+      </c>
+      <c r="D29">
+        <v>18</v>
+      </c>
+      <c r="E29">
+        <v>19</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ref="F29:F34" si="2">COUNTIFS(A:A,"&lt;"&amp;E29,A:A,"&gt;="&amp;D29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>2.1543879509999999</v>
+      </c>
+      <c r="B30">
+        <v>55</v>
+      </c>
+      <c r="D30">
+        <v>19</v>
+      </c>
+      <c r="E30">
+        <v>20</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>2.7854254250000001</v>
+      </c>
+      <c r="B31">
+        <v>55</v>
+      </c>
+      <c r="D31">
+        <v>20</v>
+      </c>
+      <c r="E31">
+        <v>21</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>10.65143514</v>
+      </c>
+      <c r="B32">
+        <v>53</v>
+      </c>
+      <c r="D32">
+        <v>21</v>
+      </c>
+      <c r="E32">
+        <v>22</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>7.2820036410000002</v>
+      </c>
+      <c r="B33">
+        <v>59</v>
+      </c>
+      <c r="D33">
+        <v>22</v>
+      </c>
+      <c r="E33">
+        <v>23</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>3.9412863250000001</v>
+      </c>
+      <c r="B34">
+        <v>59</v>
+      </c>
+      <c r="D34">
+        <v>23</v>
+      </c>
+      <c r="E34">
+        <v>24</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>15.07179904</v>
+      </c>
+      <c r="B35">
+        <v>58</v>
+      </c>
+      <c r="D35">
+        <v>24</v>
+      </c>
+      <c r="E35">
+        <v>25</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ref="F35:F41" si="3">COUNTIFS(A:A,"&lt;"&amp;E35,A:A,"&gt;="&amp;D35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>10.019935609999999</v>
+      </c>
+      <c r="B36">
+        <v>61</v>
+      </c>
+      <c r="D36">
+        <v>25</v>
+      </c>
+      <c r="E36">
+        <v>26</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>2.5175473689999999</v>
+      </c>
+      <c r="B37">
+        <v>57</v>
+      </c>
+      <c r="D37">
+        <v>26</v>
+      </c>
+      <c r="E37">
+        <v>27</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>7.2061107160000004</v>
+      </c>
+      <c r="B38">
+        <v>60</v>
+      </c>
+      <c r="D38">
+        <v>27</v>
+      </c>
+      <c r="E38">
+        <v>28</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>6.3275113110000003</v>
+      </c>
+      <c r="B39">
+        <v>58</v>
+      </c>
+      <c r="D39">
+        <v>28</v>
+      </c>
+      <c r="E39">
+        <v>29</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>2.950572491</v>
+      </c>
+      <c r="B40">
+        <v>59</v>
+      </c>
+      <c r="D40">
+        <v>29</v>
+      </c>
+      <c r="E40">
+        <v>30</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>8.5065903659999993</v>
+      </c>
+      <c r="B41">
+        <v>59</v>
+      </c>
+      <c r="D41">
+        <v>30</v>
+      </c>
+      <c r="E41">
+        <v>31</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>12.87032795</v>
+      </c>
+      <c r="B42">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>4.3369395730000004</v>
+      </c>
+      <c r="B43">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>2.6095366480000002</v>
+      </c>
+      <c r="B44">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>9.4421072010000007</v>
+      </c>
+      <c r="B45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>8.3253655430000002</v>
+      </c>
+      <c r="B46">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>3.0391826630000001</v>
+      </c>
+      <c r="B47">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>2.5127065179999999</v>
+      </c>
+      <c r="B48">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>2.507399559</v>
+      </c>
+      <c r="B49">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>13.504122969999999</v>
+      </c>
+      <c r="B50">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>8.4584555629999993</v>
+      </c>
+      <c r="B51">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>2.4725580219999999</v>
+      </c>
+      <c r="B52">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>7.2510948180000003</v>
+      </c>
+      <c r="B53">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>1.9709038729999999</v>
+      </c>
+      <c r="B54">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>7.0185375209999998</v>
+      </c>
+      <c r="B55">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>8.390706539</v>
+      </c>
+      <c r="B56">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>4.008717775</v>
+      </c>
+      <c r="B57">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>3.4277057649999998</v>
+      </c>
+      <c r="B58">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>20.449530119999999</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>5.5331525800000003</v>
+      </c>
+      <c r="B60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>25.65406656</v>
+      </c>
+      <c r="B61">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>19.815578940000002</v>
+      </c>
+      <c r="B62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>2.8920938970000001</v>
+      </c>
+      <c r="B63">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>4.5478262899999997</v>
+      </c>
+      <c r="B64">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A65">
+        <v>6.3322422500000002</v>
+      </c>
+      <c r="B65">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A66">
+        <v>3.106369495</v>
+      </c>
+      <c r="B66">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A67">
+        <v>1.5893287659999999</v>
+      </c>
+      <c r="B67">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A68">
+        <v>11.21243119</v>
+      </c>
+      <c r="B68">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A69">
+        <v>1.5449109080000001</v>
+      </c>
+      <c r="B69">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A70">
+        <v>2.514941216</v>
+      </c>
+      <c r="B70">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A71">
+        <v>8.8117527960000004</v>
+      </c>
+      <c r="B71">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A72">
+        <v>4.36763382</v>
+      </c>
+      <c r="B72">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A73">
+        <v>1.6988353730000001</v>
+      </c>
+      <c r="B73">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A74">
+        <v>9.1756808759999995</v>
+      </c>
+      <c r="B74">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A75">
+        <v>2.2799694540000002</v>
+      </c>
+      <c r="B75">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A76">
+        <v>5.3571717740000002</v>
+      </c>
+      <c r="B76">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A77">
+        <v>5.6594626899999998</v>
+      </c>
+      <c r="B77">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <v>1.93640995</v>
+      </c>
+      <c r="B78">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <v>1.577826738</v>
+      </c>
+      <c r="B79">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <v>2.0268964770000002</v>
+      </c>
+      <c r="B80">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>1.3738777639999999</v>
+      </c>
+      <c r="B81">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <v>17.13304162</v>
+      </c>
+      <c r="B82">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <v>4.2123858930000004</v>
+      </c>
+      <c r="B83">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A84">
+        <v>5.0845968719999997</v>
+      </c>
+      <c r="B84">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A85">
+        <v>2.397798061</v>
+      </c>
+      <c r="B85">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A86">
+        <v>1.596605539</v>
+      </c>
+      <c r="B86">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A87">
+        <v>4.7954032419999999</v>
+      </c>
+      <c r="B87">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A88">
+        <v>11.01986361</v>
+      </c>
+      <c r="B88">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A89">
+        <v>5.8576905730000002</v>
+      </c>
+      <c r="B89">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A90">
+        <v>2.233011007</v>
+      </c>
+      <c r="B90">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A91">
+        <v>11.379004</v>
+      </c>
+      <c r="B91">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A92">
+        <v>5.0495111939999999</v>
+      </c>
+      <c r="B92">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A93">
+        <v>3.4795732500000001</v>
+      </c>
+      <c r="B93">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A94">
+        <v>2.0193576809999998</v>
+      </c>
+      <c r="B94">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A95">
+        <v>3.7872779369999998</v>
+      </c>
+      <c r="B95">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A96">
+        <v>2.001282454</v>
+      </c>
+      <c r="B96">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A97">
+        <v>6.6779706479999996</v>
+      </c>
+      <c r="B97">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A98">
+        <v>2.2550985809999999</v>
+      </c>
+      <c r="B98">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A99">
+        <v>10.772024869999999</v>
+      </c>
+      <c r="B99">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A100">
+        <v>7.8777308460000004</v>
+      </c>
+      <c r="B100">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E408AD1-1492-4321-8C08-6996CBCFF433}">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -13525,7 +20289,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0297C02-86D5-4394-99B2-8731B3236664}">
   <dimension ref="A1:J100"/>
   <sheetViews>
@@ -14715,7 +21479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32CE6024-17ED-4D0B-9C09-169A4D652D31}">
   <dimension ref="A1:J101"/>
   <sheetViews>
@@ -15913,7 +22677,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE3B6A1-53E3-48B8-947C-A15ED8820269}">
   <dimension ref="A1:J98"/>
   <sheetViews>
@@ -17049,7 +23813,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7412353C-36B4-4188-9488-ED307084059D}">
   <dimension ref="A1:J96"/>
   <sheetViews>
@@ -18169,7 +24933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081AC988-56DA-434D-BEB0-C61262DEAA46}">
   <dimension ref="A1:J113"/>
   <sheetViews>

--- a/4x4x4solver_v6/analytics.xlsx
+++ b/4x4x4solver_v6/analytics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\Solvour\4x4x4solver_v6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E32802-E231-4B54-8233-013F035824A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8F47DB-419E-4F86-A1CE-6949D5A593BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{946BFEEE-BBBF-4482-BF8B-5542A0A8C7AB}"/>
   </bookViews>
@@ -454,49 +454,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -5089,22 +5089,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -26736,10 +26736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C862F1A2-4B7F-4B62-84DD-D97E7C6441C1}">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -26753,6 +26753,12 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>5.0672748089999997</v>
+      </c>
+      <c r="B2">
+        <v>58</v>
+      </c>
       <c r="E2" t="s">
         <v>0</v>
       </c>
@@ -26767,110 +26773,154 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>0.287303209</v>
+      </c>
+      <c r="B3">
+        <v>51</v>
+      </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="e">
+      <c r="E3">
         <f>AVERAGE(A:A)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F3" t="e">
+        <v>4.201494026139998</v>
+      </c>
+      <c r="F3">
         <f>AVERAGE(B:B)</f>
-        <v>#DIV/0!</v>
+        <v>56.8</v>
       </c>
       <c r="H3" t="s">
         <v>11</v>
       </c>
-      <c r="I3" t="e">
+      <c r="I3">
         <f>COUNTIFS(A:A,"&lt;10")/COUNT(A:A)*100</f>
-        <v>#DIV/0!</v>
+        <v>94</v>
       </c>
       <c r="J3">
         <f>COUNT(B:B)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>6.5067868229999997</v>
+      </c>
+      <c r="B4">
+        <v>61</v>
+      </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="e">
+      <c r="E4">
         <f>_xlfn.STDEV.S(A:A)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F4" t="e">
+        <v>3.1267812330311431</v>
+      </c>
+      <c r="F4">
         <f>_xlfn.STDEV.S(B:B)</f>
-        <v>#DIV/0!</v>
+        <v>2.5346089292516951</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
       </c>
-      <c r="I4" t="e">
+      <c r="I4">
         <f>COUNTIFS(A:A,"&lt;5")/COUNT(A:A)*100</f>
-        <v>#DIV/0!</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>1.440039635</v>
+      </c>
+      <c r="B5">
+        <v>58</v>
+      </c>
       <c r="D5" t="s">
         <v>4</v>
       </c>
       <c r="E5">
         <f>MAX(A:A)</f>
-        <v>0</v>
+        <v>14.11067486</v>
       </c>
       <c r="F5">
         <f>MAX(B:B)</f>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
       </c>
-      <c r="I5" t="e">
+      <c r="I5">
         <f>COUNTIFS(A:A,"&lt;3")/COUNT(A:A)*100</f>
-        <v>#DIV/0!</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>0.66227531399999995</v>
+      </c>
+      <c r="B6">
+        <v>53</v>
+      </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" t="e">
+      <c r="E6">
         <f>MEDIAN(A:A)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F6" t="e">
+        <v>3.7392941715000001</v>
+      </c>
+      <c r="F6">
         <f>MEDIAN(B:B)</f>
-        <v>#NUM!</v>
+        <v>57</v>
       </c>
       <c r="H6" t="s">
         <v>14</v>
       </c>
-      <c r="I6" t="e">
+      <c r="I6">
         <f>COUNTIFS(A:A,"&lt;2")/COUNT(A:A)*100</f>
-        <v>#DIV/0!</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>0.92621779400000004</v>
+      </c>
+      <c r="B7">
+        <v>53</v>
+      </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
       <c r="E7">
         <f>MIN(A:A)</f>
-        <v>0</v>
+        <v>0.23536992100000001</v>
       </c>
       <c r="F7">
         <f>MIN(B:B)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
       </c>
-      <c r="I7" t="e">
+      <c r="I7">
         <f>COUNTIFS(A:A,"&lt;1")/COUNT(A:A)*100</f>
-        <v>#DIV/0!</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>2.8318591120000001</v>
+      </c>
+      <c r="B8">
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>1.5928866859999999</v>
+      </c>
+      <c r="B9">
+        <v>56</v>
+      </c>
       <c r="D9" t="s">
         <v>0</v>
       </c>
@@ -26879,6 +26929,12 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>5.0022780899999999</v>
+      </c>
+      <c r="B10">
+        <v>58</v>
+      </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
@@ -26899,6 +26955,12 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>5.3004183769999997</v>
+      </c>
+      <c r="B11">
+        <v>55</v>
+      </c>
       <c r="D11">
         <v>0</v>
       </c>
@@ -26907,7 +26969,7 @@
       </c>
       <c r="F11">
         <f>COUNTIFS(A:A,"&lt;"&amp;E11,A:A,"&gt;="&amp;D11)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H11">
         <v>48</v>
@@ -26921,6 +26983,12 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>6.6854703430000004</v>
+      </c>
+      <c r="B12">
+        <v>57</v>
+      </c>
       <c r="D12">
         <v>1</v>
       </c>
@@ -26929,7 +26997,7 @@
       </c>
       <c r="F12">
         <f t="shared" ref="F12:F41" si="1">COUNTIFS(A:A,"&lt;"&amp;E12,A:A,"&gt;="&amp;D12)</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H12">
         <v>50</v>
@@ -26939,10 +27007,16 @@
       </c>
       <c r="J12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>2.9165472979999998</v>
+      </c>
+      <c r="B13">
+        <v>56</v>
+      </c>
       <c r="D13">
         <v>2</v>
       </c>
@@ -26951,7 +27025,7 @@
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H13">
         <v>52</v>
@@ -26961,10 +27035,16 @@
       </c>
       <c r="J13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>1.670004606</v>
+      </c>
+      <c r="B14">
+        <v>55</v>
+      </c>
       <c r="D14">
         <v>3</v>
       </c>
@@ -26973,7 +27053,7 @@
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H14">
         <v>54</v>
@@ -26983,10 +27063,16 @@
       </c>
       <c r="J14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>8.2502539160000001</v>
+      </c>
+      <c r="B15">
+        <v>58</v>
+      </c>
       <c r="D15">
         <v>4</v>
       </c>
@@ -26995,7 +27081,7 @@
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H15">
         <v>56</v>
@@ -27005,10 +27091,16 @@
       </c>
       <c r="J15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>11.188903809999999</v>
+      </c>
+      <c r="B16">
+        <v>61</v>
+      </c>
       <c r="D16">
         <v>5</v>
       </c>
@@ -27017,7 +27109,7 @@
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H16">
         <v>58</v>
@@ -27027,10 +27119,16 @@
       </c>
       <c r="J16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>0.74304985999999995</v>
+      </c>
+      <c r="B17">
+        <v>53</v>
+      </c>
       <c r="D17">
         <v>6</v>
       </c>
@@ -27039,7 +27137,7 @@
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H17">
         <v>60</v>
@@ -27049,10 +27147,16 @@
       </c>
       <c r="J17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>0.71809864000000001</v>
+      </c>
+      <c r="B18">
+        <v>54</v>
+      </c>
       <c r="D18">
         <v>7</v>
       </c>
@@ -27061,7 +27165,7 @@
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H18">
         <v>62</v>
@@ -27074,7 +27178,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>8.778671503</v>
+      </c>
+      <c r="B19">
+        <v>61</v>
+      </c>
       <c r="D19">
         <v>8</v>
       </c>
@@ -27083,10 +27193,16 @@
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="4:10" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>4.8911504749999999</v>
+      </c>
+      <c r="B20">
+        <v>58</v>
+      </c>
       <c r="D20">
         <v>9</v>
       </c>
@@ -27095,10 +27211,16 @@
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="4:10" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>2.9650721550000001</v>
+      </c>
+      <c r="B21">
+        <v>58</v>
+      </c>
       <c r="D21">
         <v>10</v>
       </c>
@@ -27110,7 +27232,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="4:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>1.9836964610000001</v>
+      </c>
+      <c r="B22">
+        <v>53</v>
+      </c>
       <c r="D22">
         <v>11</v>
       </c>
@@ -27119,10 +27247,16 @@
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="4:10" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>3.5445199010000001</v>
+      </c>
+      <c r="B23">
+        <v>54</v>
+      </c>
       <c r="D23">
         <v>12</v>
       </c>
@@ -27134,7 +27268,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>2.8025181290000001</v>
+      </c>
+      <c r="B24">
+        <v>57</v>
+      </c>
       <c r="D24">
         <v>13</v>
       </c>
@@ -27143,10 +27283,16 @@
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="4:10" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>4.4311487669999998</v>
+      </c>
+      <c r="B25">
+        <v>58</v>
+      </c>
       <c r="D25">
         <v>14</v>
       </c>
@@ -27155,10 +27301,16 @@
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="4:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>4.1358075139999997</v>
+      </c>
+      <c r="B26">
+        <v>55</v>
+      </c>
       <c r="D26">
         <v>15</v>
       </c>
@@ -27170,7 +27322,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="4:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>7.7010188099999999</v>
+      </c>
+      <c r="B27">
+        <v>58</v>
+      </c>
       <c r="D27">
         <v>16</v>
       </c>
@@ -27182,7 +27340,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="4:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>3.8961384300000002</v>
+      </c>
+      <c r="B28">
+        <v>61</v>
+      </c>
       <c r="D28">
         <v>17</v>
       </c>
@@ -27194,7 +27358,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="4:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>4.2017691140000002</v>
+      </c>
+      <c r="B29">
+        <v>58</v>
+      </c>
       <c r="D29">
         <v>18</v>
       </c>
@@ -27206,7 +27376,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="4:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>1.5299046039999999</v>
+      </c>
+      <c r="B30">
+        <v>55</v>
+      </c>
       <c r="D30">
         <v>19</v>
       </c>
@@ -27218,7 +27394,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="4:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>11.08447003</v>
+      </c>
+      <c r="B31">
+        <v>60</v>
+      </c>
       <c r="D31">
         <v>20</v>
       </c>
@@ -27230,7 +27412,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="4:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>1.7592420580000001</v>
+      </c>
+      <c r="B32">
+        <v>54</v>
+      </c>
       <c r="D32">
         <v>21</v>
       </c>
@@ -27242,7 +27430,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>3.7530398370000002</v>
+      </c>
+      <c r="B33">
+        <v>58</v>
+      </c>
       <c r="D33">
         <v>22</v>
       </c>
@@ -27254,7 +27448,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>3.5784304140000001</v>
+      </c>
+      <c r="B34">
+        <v>56</v>
+      </c>
       <c r="D34">
         <v>23</v>
       </c>
@@ -27266,7 +27466,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>5.8275206089999996</v>
+      </c>
+      <c r="B35">
+        <v>56</v>
+      </c>
       <c r="D35">
         <v>24</v>
       </c>
@@ -27278,7 +27484,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>0.94942855800000003</v>
+      </c>
+      <c r="B36">
+        <v>52</v>
+      </c>
       <c r="D36">
         <v>25</v>
       </c>
@@ -27290,7 +27502,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>2.0784864430000001</v>
+      </c>
+      <c r="B37">
+        <v>56</v>
+      </c>
       <c r="D37">
         <v>26</v>
       </c>
@@ -27302,7 +27520,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>2.5875957010000001</v>
+      </c>
+      <c r="B38">
+        <v>59</v>
+      </c>
       <c r="D38">
         <v>27</v>
       </c>
@@ -27314,7 +27538,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>1.6236579419999999</v>
+      </c>
+      <c r="B39">
+        <v>58</v>
+      </c>
       <c r="D39">
         <v>28</v>
       </c>
@@ -27326,7 +27556,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>1.0193178650000001</v>
+      </c>
+      <c r="B40">
+        <v>52</v>
+      </c>
       <c r="D40">
         <v>29</v>
       </c>
@@ -27338,7 +27574,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>1.732247353</v>
+      </c>
+      <c r="B41">
+        <v>54</v>
+      </c>
       <c r="D41">
         <v>30</v>
       </c>
@@ -27348,6 +27590,486 @@
       <c r="F41">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>3.834183216</v>
+      </c>
+      <c r="B42">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>2.8641924859999999</v>
+      </c>
+      <c r="B43">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>13.00402379</v>
+      </c>
+      <c r="B44">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>3.7727608680000002</v>
+      </c>
+      <c r="B45">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>8.5419690609999996</v>
+      </c>
+      <c r="B46">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>0.66023397399999995</v>
+      </c>
+      <c r="B47">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>4.0819411280000004</v>
+      </c>
+      <c r="B48">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>9.46049118</v>
+      </c>
+      <c r="B49">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>7.0185046199999999</v>
+      </c>
+      <c r="B50">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>1.6422502990000001</v>
+      </c>
+      <c r="B51">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>3.1352026460000002</v>
+      </c>
+      <c r="B52">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>1.2506206040000001</v>
+      </c>
+      <c r="B53">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>3.9224591260000001</v>
+      </c>
+      <c r="B54">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>7.8286769390000002</v>
+      </c>
+      <c r="B55">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>4.3092212679999999</v>
+      </c>
+      <c r="B56">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>7.0957560539999998</v>
+      </c>
+      <c r="B57">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>0.31914639500000003</v>
+      </c>
+      <c r="B58">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>3.4268589020000002</v>
+      </c>
+      <c r="B59">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>3.2952854629999999</v>
+      </c>
+      <c r="B60">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>2.42135334</v>
+      </c>
+      <c r="B61">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>1.662703037</v>
+      </c>
+      <c r="B62">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>3.982432604</v>
+      </c>
+      <c r="B63">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>4.0896730420000003</v>
+      </c>
+      <c r="B64">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A65">
+        <v>0.23536992100000001</v>
+      </c>
+      <c r="B65">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A66">
+        <v>5.5029833320000003</v>
+      </c>
+      <c r="B66">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A67">
+        <v>5.9727659229999999</v>
+      </c>
+      <c r="B67">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A68">
+        <v>4.0769577029999997</v>
+      </c>
+      <c r="B68">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A69">
+        <v>2.5970783229999999</v>
+      </c>
+      <c r="B69">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A70">
+        <v>8.9266226290000006</v>
+      </c>
+      <c r="B70">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A71">
+        <v>11.640734670000001</v>
+      </c>
+      <c r="B71">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A72">
+        <v>1.3334331509999999</v>
+      </c>
+      <c r="B72">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A73">
+        <v>3.6005725860000002</v>
+      </c>
+      <c r="B73">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A74">
+        <v>4.4960887429999996</v>
+      </c>
+      <c r="B74">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A75">
+        <v>0.41588640199999999</v>
+      </c>
+      <c r="B75">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A76">
+        <v>1.0907924179999999</v>
+      </c>
+      <c r="B76">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A77">
+        <v>13.147104499999999</v>
+      </c>
+      <c r="B77">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <v>4.2637541289999996</v>
+      </c>
+      <c r="B78">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <v>5.8724448679999997</v>
+      </c>
+      <c r="B79">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <v>4.4637324810000001</v>
+      </c>
+      <c r="B80">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>1.2601177690000001</v>
+      </c>
+      <c r="B81">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <v>6.7468934059999999</v>
+      </c>
+      <c r="B82">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <v>4.8749299050000001</v>
+      </c>
+      <c r="B83">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A84">
+        <v>1.568384886</v>
+      </c>
+      <c r="B84">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A85">
+        <v>1.463377476</v>
+      </c>
+      <c r="B85">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A86">
+        <v>14.11067486</v>
+      </c>
+      <c r="B86">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A87">
+        <v>1.2223513130000001</v>
+      </c>
+      <c r="B87">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A88">
+        <v>2.9281678200000001</v>
+      </c>
+      <c r="B88">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A89">
+        <v>1.8511536120000001</v>
+      </c>
+      <c r="B89">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A90">
+        <v>3.5030717849999999</v>
+      </c>
+      <c r="B90">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A91">
+        <v>1.0013461109999999</v>
+      </c>
+      <c r="B91">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A92">
+        <v>5.432256937</v>
+      </c>
+      <c r="B92">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A93">
+        <v>1.702488899</v>
+      </c>
+      <c r="B93">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A94">
+        <v>6.574088573</v>
+      </c>
+      <c r="B94">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A95">
+        <v>1.4726161959999999</v>
+      </c>
+      <c r="B95">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A96">
+        <v>8.6567151550000005</v>
+      </c>
+      <c r="B96">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A97">
+        <v>9.2558860779999996</v>
+      </c>
+      <c r="B97">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A98">
+        <v>6.6203200820000001</v>
+      </c>
+      <c r="B98">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A99">
+        <v>3.8141021730000002</v>
+      </c>
+      <c r="B99">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A100">
+        <v>4.4641282560000004</v>
+      </c>
+      <c r="B100">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A101">
+        <v>3.725548506</v>
+      </c>
+      <c r="B101">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -32062,7 +32784,7 @@
   <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+      <selection activeCell="D30" sqref="D30:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/4x4x4solver_v6/analytics.xlsx
+++ b/4x4x4solver_v6/analytics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\Solvour\4x4x4solver_v6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8F47DB-419E-4F86-A1CE-6949D5A593BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D6AEC6-D6ED-44BA-8F25-5035BE16FEA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{946BFEEE-BBBF-4482-BF8B-5542A0A8C7AB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{946BFEEE-BBBF-4482-BF8B-5542A0A8C7AB}"/>
   </bookViews>
   <sheets>
     <sheet name="NyanyanFunc_-1.9-2事前計算_3_max_sd" sheetId="13" r:id="rId1"/>
@@ -8195,10 +8195,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'NyanyanFunc_-1.9-2事前計算_2_max_sd'!$D$11:$D$41</c:f>
+              <c:f>'NyanyanFunc_-1.9-2事前計算_2_max_sd'!$D$11:$D$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8246,61 +8246,16 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'NyanyanFunc_-1.9-2事前計算_2_max_sd'!$F$11:$F$41</c:f>
+              <c:f>'NyanyanFunc_-1.9-2事前計算_2_max_sd'!$F$11:$F$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -8347,51 +8302,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -26738,8 +26648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C862F1A2-4B7F-4B62-84DD-D97E7C6441C1}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -32783,8 +32693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{901A6F41-7C61-42BB-AF4F-B34AEFDC1CA5}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30:D31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -33374,16 +33284,6 @@
       <c r="B27">
         <v>56</v>
       </c>
-      <c r="D27">
-        <v>16</v>
-      </c>
-      <c r="E27">
-        <v>17</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28">
@@ -33392,16 +33292,6 @@
       <c r="B28">
         <v>55</v>
       </c>
-      <c r="D28">
-        <v>17</v>
-      </c>
-      <c r="E28">
-        <v>18</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29">
@@ -33410,16 +33300,6 @@
       <c r="B29">
         <v>56</v>
       </c>
-      <c r="D29">
-        <v>18</v>
-      </c>
-      <c r="E29">
-        <v>19</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30">
@@ -33428,16 +33308,6 @@
       <c r="B30">
         <v>55</v>
       </c>
-      <c r="D30">
-        <v>19</v>
-      </c>
-      <c r="E30">
-        <v>20</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31">
@@ -33446,16 +33316,6 @@
       <c r="B31">
         <v>57</v>
       </c>
-      <c r="D31">
-        <v>20</v>
-      </c>
-      <c r="E31">
-        <v>21</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32">
@@ -33464,180 +33324,80 @@
       <c r="B32">
         <v>59</v>
       </c>
-      <c r="D32">
-        <v>21</v>
-      </c>
-      <c r="E32">
-        <v>22</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>3.8118748660000001</v>
       </c>
       <c r="B33">
         <v>57</v>
       </c>
-      <c r="D33">
-        <v>22</v>
-      </c>
-      <c r="E33">
-        <v>23</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>1.8999199870000001</v>
       </c>
       <c r="B34">
         <v>57</v>
       </c>
-      <c r="D34">
-        <v>23</v>
-      </c>
-      <c r="E34">
-        <v>24</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>4.8445773120000002</v>
       </c>
       <c r="B35">
         <v>55</v>
       </c>
-      <c r="D35">
-        <v>24</v>
-      </c>
-      <c r="E35">
-        <v>25</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>3.1200518609999999</v>
       </c>
       <c r="B36">
         <v>57</v>
       </c>
-      <c r="D36">
-        <v>25</v>
-      </c>
-      <c r="E36">
-        <v>26</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>1.6302242280000001</v>
       </c>
       <c r="B37">
         <v>54</v>
       </c>
-      <c r="D37">
-        <v>26</v>
-      </c>
-      <c r="E37">
-        <v>27</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>1.528009653</v>
       </c>
       <c r="B38">
         <v>55</v>
       </c>
-      <c r="D38">
-        <v>27</v>
-      </c>
-      <c r="E38">
-        <v>28</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>2.1879959109999998</v>
       </c>
       <c r="B39">
         <v>58</v>
       </c>
-      <c r="D39">
-        <v>28</v>
-      </c>
-      <c r="E39">
-        <v>29</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>8.4618694780000006</v>
       </c>
       <c r="B40">
         <v>59</v>
       </c>
-      <c r="D40">
-        <v>29</v>
-      </c>
-      <c r="E40">
-        <v>30</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>5.523654938</v>
       </c>
       <c r="B41">
         <v>59</v>
       </c>
-      <c r="D41">
-        <v>30</v>
-      </c>
-      <c r="E41">
-        <v>31</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>2.8527829649999998</v>
       </c>
@@ -33645,7 +33405,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>6.7638039589999996</v>
       </c>
@@ -33653,7 +33413,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>0.73704314199999998</v>
       </c>
@@ -33661,7 +33421,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>7.0220432280000002</v>
       </c>
@@ -33669,7 +33429,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>1.0857889650000001</v>
       </c>
@@ -33677,7 +33437,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>1.395471334</v>
       </c>
@@ -33685,7 +33445,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>1.5923323629999999</v>
       </c>

--- a/4x4x4solver_v6/analytics.xlsx
+++ b/4x4x4solver_v6/analytics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\Solvour\4x4x4solver_v6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CA49F4-40D2-4510-BB36-8F4E97E65348}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF5181D-10BD-4C76-B205-BF896BE667CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{946BFEEE-BBBF-4482-BF8B-5542A0A8C7AB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{946BFEEE-BBBF-4482-BF8B-5542A0A8C7AB}"/>
   </bookViews>
   <sheets>
     <sheet name="NyanyanFunc_-1.4-1.7事前計算_2" sheetId="22" r:id="rId1"/>
@@ -424,43 +424,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -4927,22 +4927,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -44412,10 +44412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FA8839-989C-4FA1-9500-8CF631A1A399}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -44429,6 +44429,12 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>2.4515888690000001</v>
+      </c>
+      <c r="B2">
+        <v>58</v>
+      </c>
       <c r="E2" t="s">
         <v>0</v>
       </c>
@@ -44443,110 +44449,154 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2.1546518799999999</v>
+      </c>
+      <c r="B3">
+        <v>60</v>
+      </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="e">
+      <c r="E3">
         <f>AVERAGE(A:A)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F3" t="e">
+        <v>3.6783045721300001</v>
+      </c>
+      <c r="F3">
         <f>AVERAGE(B:B)</f>
-        <v>#DIV/0!</v>
+        <v>57.03</v>
       </c>
       <c r="H3" t="s">
         <v>11</v>
       </c>
-      <c r="I3" t="e">
+      <c r="I3">
         <f>COUNTIFS(A:A,"&lt;10")/COUNT(A:A)*100</f>
-        <v>#DIV/0!</v>
+        <v>97</v>
       </c>
       <c r="J3">
         <f>COUNT(B:B)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3.260409594</v>
+      </c>
+      <c r="B4">
+        <v>57</v>
+      </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="e">
+      <c r="E4">
         <f>_xlfn.STDEV.S(A:A)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F4" t="e">
+        <v>2.3726720710986329</v>
+      </c>
+      <c r="F4">
         <f>_xlfn.STDEV.S(B:B)</f>
-        <v>#DIV/0!</v>
+        <v>1.9040361171347397</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
       </c>
-      <c r="I4" t="e">
+      <c r="I4">
         <f>COUNTIFS(A:A,"&lt;5")/COUNT(A:A)*100</f>
-        <v>#DIV/0!</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>2.731681585</v>
+      </c>
+      <c r="B5">
+        <v>58</v>
+      </c>
       <c r="D5" t="s">
         <v>4</v>
       </c>
       <c r="E5">
         <f>MAX(A:A)</f>
-        <v>0</v>
+        <v>12.24881053</v>
       </c>
       <c r="F5">
         <f>MAX(B:B)</f>
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
       </c>
-      <c r="I5" t="e">
+      <c r="I5">
         <f>COUNTIFS(A:A,"&lt;3")/COUNT(A:A)*100</f>
-        <v>#DIV/0!</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>2.1213302610000002</v>
+      </c>
+      <c r="B6">
+        <v>56</v>
+      </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" t="e">
+      <c r="E6">
         <f>MEDIAN(A:A)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F6" t="e">
+        <v>3.0517278909999996</v>
+      </c>
+      <c r="F6">
         <f>MEDIAN(B:B)</f>
-        <v>#NUM!</v>
+        <v>57</v>
       </c>
       <c r="H6" t="s">
         <v>14</v>
       </c>
-      <c r="I6" t="e">
+      <c r="I6">
         <f>COUNTIFS(A:A,"&lt;2")/COUNT(A:A)*100</f>
-        <v>#DIV/0!</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>2.5203077789999999</v>
+      </c>
+      <c r="B7">
+        <v>59</v>
+      </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
       <c r="E7">
         <f>MIN(A:A)</f>
-        <v>0</v>
+        <v>0.57909440999999995</v>
       </c>
       <c r="F7">
         <f>MIN(B:B)</f>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
       </c>
-      <c r="I7" t="e">
+      <c r="I7">
         <f>COUNTIFS(A:A,"&lt;1")/COUNT(A:A)*100</f>
-        <v>#DIV/0!</v>
+        <v>7.0000000000000009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>3.562074661</v>
+      </c>
+      <c r="B8">
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>1.1778507229999999</v>
+      </c>
+      <c r="B9">
+        <v>54</v>
+      </c>
       <c r="D9" t="s">
         <v>0</v>
       </c>
@@ -44555,6 +44605,12 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>3.725240946</v>
+      </c>
+      <c r="B10">
+        <v>57</v>
+      </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
@@ -44575,6 +44631,12 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>2.7826612000000002</v>
+      </c>
+      <c r="B11">
+        <v>56</v>
+      </c>
       <c r="D11">
         <v>0</v>
       </c>
@@ -44583,7 +44645,7 @@
       </c>
       <c r="F11">
         <f>COUNTIFS(A:A,"&lt;"&amp;E11,A:A,"&gt;="&amp;D11)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H11">
         <v>48</v>
@@ -44597,6 +44659,12 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>2.1442692280000002</v>
+      </c>
+      <c r="B12">
+        <v>61</v>
+      </c>
       <c r="D12">
         <v>1</v>
       </c>
@@ -44605,7 +44673,7 @@
       </c>
       <c r="F12">
         <f t="shared" ref="F12:F28" si="1">COUNTIFS(A:A,"&lt;"&amp;E12,A:A,"&gt;="&amp;D12)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H12">
         <v>50</v>
@@ -44619,6 +44687,12 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>7.6136541370000002</v>
+      </c>
+      <c r="B13">
+        <v>55</v>
+      </c>
       <c r="D13">
         <v>2</v>
       </c>
@@ -44627,7 +44701,7 @@
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="H13">
         <v>52</v>
@@ -44637,10 +44711,16 @@
       </c>
       <c r="J13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>3.0261642929999999</v>
+      </c>
+      <c r="B14">
+        <v>58</v>
+      </c>
       <c r="D14">
         <v>3</v>
       </c>
@@ -44649,7 +44729,7 @@
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H14">
         <v>54</v>
@@ -44659,10 +44739,16 @@
       </c>
       <c r="J14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>0.96350955999999999</v>
+      </c>
+      <c r="B15">
+        <v>56</v>
+      </c>
       <c r="D15">
         <v>4</v>
       </c>
@@ -44671,7 +44757,7 @@
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H15">
         <v>56</v>
@@ -44681,10 +44767,16 @@
       </c>
       <c r="J15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>2.471803188</v>
+      </c>
+      <c r="B16">
+        <v>57</v>
+      </c>
       <c r="D16">
         <v>5</v>
       </c>
@@ -44693,7 +44785,7 @@
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H16">
         <v>58</v>
@@ -44703,10 +44795,16 @@
       </c>
       <c r="J16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>10.840979340000001</v>
+      </c>
+      <c r="B17">
+        <v>57</v>
+      </c>
       <c r="D17">
         <v>6</v>
       </c>
@@ -44715,7 +44813,7 @@
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H17">
         <v>60</v>
@@ -44725,10 +44823,16 @@
       </c>
       <c r="J17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>3.0772914889999998</v>
+      </c>
+      <c r="B18">
+        <v>57</v>
+      </c>
       <c r="D18">
         <v>7</v>
       </c>
@@ -44737,7 +44841,7 @@
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H18">
         <v>62</v>
@@ -44747,10 +44851,16 @@
       </c>
       <c r="J18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>0.65652632700000002</v>
+      </c>
+      <c r="B19">
+        <v>55</v>
+      </c>
       <c r="D19">
         <v>8</v>
       </c>
@@ -44759,10 +44869,16 @@
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="4:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>5.275809765</v>
+      </c>
+      <c r="B20">
+        <v>57</v>
+      </c>
       <c r="D20">
         <v>9</v>
       </c>
@@ -44771,10 +44887,16 @@
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="4:10" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>2.960633278</v>
+      </c>
+      <c r="B21">
+        <v>58</v>
+      </c>
       <c r="D21">
         <v>10</v>
       </c>
@@ -44783,10 +44905,16 @@
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="4:10" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>0.79542064700000004</v>
+      </c>
+      <c r="B22">
+        <v>57</v>
+      </c>
       <c r="D22">
         <v>11</v>
       </c>
@@ -44798,7 +44926,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="4:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>2.6291480059999999</v>
+      </c>
+      <c r="B23">
+        <v>59</v>
+      </c>
       <c r="D23">
         <v>12</v>
       </c>
@@ -44807,10 +44941,16 @@
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="4:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>3.1703531740000002</v>
+      </c>
+      <c r="B24">
+        <v>55</v>
+      </c>
       <c r="D24">
         <v>13</v>
       </c>
@@ -44822,7 +44962,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="4:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>1.774428844</v>
+      </c>
+      <c r="B25">
+        <v>60</v>
+      </c>
       <c r="D25">
         <v>14</v>
       </c>
@@ -44834,7 +44980,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="4:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>9.1141209599999993</v>
+      </c>
+      <c r="B26">
+        <v>57</v>
+      </c>
       <c r="D26">
         <v>15</v>
       </c>
@@ -44846,7 +44998,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="4:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>4.6597785949999997</v>
+      </c>
+      <c r="B27">
+        <v>58</v>
+      </c>
       <c r="D27">
         <v>16</v>
       </c>
@@ -44858,7 +45016,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="4:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>4.5995910169999998</v>
+      </c>
+      <c r="B28">
+        <v>56</v>
+      </c>
       <c r="D28">
         <v>17</v>
       </c>
@@ -44868,6 +45032,590 @@
       <c r="F28">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>4.5271880629999997</v>
+      </c>
+      <c r="B29">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>2.5269479750000001</v>
+      </c>
+      <c r="B30">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>3.8092346190000002</v>
+      </c>
+      <c r="B31">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>7.77259016</v>
+      </c>
+      <c r="B32">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>3.7475244999999999</v>
+      </c>
+      <c r="B33">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>1.72602129</v>
+      </c>
+      <c r="B34">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>2.9609940049999999</v>
+      </c>
+      <c r="B35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>0.57909440999999995</v>
+      </c>
+      <c r="B36">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>2.6281774040000001</v>
+      </c>
+      <c r="B37">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>1.8581352229999999</v>
+      </c>
+      <c r="B38">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>10.24316597</v>
+      </c>
+      <c r="B39">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>7.0404469970000001</v>
+      </c>
+      <c r="B40">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>2.4019846920000001</v>
+      </c>
+      <c r="B41">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>3.709634066</v>
+      </c>
+      <c r="B42">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>3.5950248239999998</v>
+      </c>
+      <c r="B43">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>2.556922674</v>
+      </c>
+      <c r="B44">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>4.4183168410000002</v>
+      </c>
+      <c r="B45">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>7.7683117389999996</v>
+      </c>
+      <c r="B46">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>4.3691461089999999</v>
+      </c>
+      <c r="B47">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>4.2165665629999998</v>
+      </c>
+      <c r="B48">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>2.5098643300000001</v>
+      </c>
+      <c r="B49">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>2.7896647450000001</v>
+      </c>
+      <c r="B50">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>9.4240822790000003</v>
+      </c>
+      <c r="B51">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>4.3117578029999999</v>
+      </c>
+      <c r="B52">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>0.89023566200000004</v>
+      </c>
+      <c r="B53">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>4.7102961539999999</v>
+      </c>
+      <c r="B54">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>3.4129886630000001</v>
+      </c>
+      <c r="B55">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>3.766940355</v>
+      </c>
+      <c r="B56">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>1.4267148970000001</v>
+      </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>3.0175063610000001</v>
+      </c>
+      <c r="B58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>3.9525747299999998</v>
+      </c>
+      <c r="B59">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>1.4027543069999999</v>
+      </c>
+      <c r="B60">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>4.7620477680000004</v>
+      </c>
+      <c r="B61">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>1.0964453220000001</v>
+      </c>
+      <c r="B62">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>3.0116739269999999</v>
+      </c>
+      <c r="B63">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>5.7808461189999996</v>
+      </c>
+      <c r="B64">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A65">
+        <v>6.7294251919999999</v>
+      </c>
+      <c r="B65">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A66">
+        <v>2.9786746499999999</v>
+      </c>
+      <c r="B66">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A67">
+        <v>4.4211430549999999</v>
+      </c>
+      <c r="B67">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A68">
+        <v>2.099215746</v>
+      </c>
+      <c r="B68">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A69">
+        <v>6.5132040980000001</v>
+      </c>
+      <c r="B69">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A70">
+        <v>1.5933530330000001</v>
+      </c>
+      <c r="B70">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A71">
+        <v>3.4521808620000001</v>
+      </c>
+      <c r="B71">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A72">
+        <v>0.82740712199999999</v>
+      </c>
+      <c r="B72">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A73">
+        <v>1.529761076</v>
+      </c>
+      <c r="B73">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A74">
+        <v>6.2995972629999999</v>
+      </c>
+      <c r="B74">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A75">
+        <v>3.7860686779999999</v>
+      </c>
+      <c r="B75">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A76">
+        <v>5.879130602</v>
+      </c>
+      <c r="B76">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A77">
+        <v>1.8154218200000001</v>
+      </c>
+      <c r="B77">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <v>4.5536518099999999</v>
+      </c>
+      <c r="B78">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <v>4.7544922830000003</v>
+      </c>
+      <c r="B79">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <v>3.86191678</v>
+      </c>
+      <c r="B80">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>2.015751839</v>
+      </c>
+      <c r="B81">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <v>2.1316390040000002</v>
+      </c>
+      <c r="B82">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <v>3.2462432379999999</v>
+      </c>
+      <c r="B83">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A84">
+        <v>2.763128042</v>
+      </c>
+      <c r="B84">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A85">
+        <v>1.1760563850000001</v>
+      </c>
+      <c r="B85">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A86">
+        <v>8.2255825999999992</v>
+      </c>
+      <c r="B86">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A87">
+        <v>2.2663700580000001</v>
+      </c>
+      <c r="B87">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A88">
+        <v>0.86867713899999999</v>
+      </c>
+      <c r="B88">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A89">
+        <v>12.24881053</v>
+      </c>
+      <c r="B89">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A90">
+        <v>2.7447051999999998</v>
+      </c>
+      <c r="B90">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A91">
+        <v>2.4633190630000001</v>
+      </c>
+      <c r="B91">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A92">
+        <v>4.1672286989999998</v>
+      </c>
+      <c r="B92">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A93">
+        <v>1.7526273729999999</v>
+      </c>
+      <c r="B93">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A94">
+        <v>2.1542541979999998</v>
+      </c>
+      <c r="B94">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A95">
+        <v>4.2349104879999997</v>
+      </c>
+      <c r="B95">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A96">
+        <v>3.1156010630000002</v>
+      </c>
+      <c r="B96">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A97">
+        <v>1.6279907229999999</v>
+      </c>
+      <c r="B97">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A98">
+        <v>3.1475281719999999</v>
+      </c>
+      <c r="B98">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A99">
+        <v>1.547876596</v>
+      </c>
+      <c r="B99">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A100">
+        <v>9.6197710040000004</v>
+      </c>
+      <c r="B100">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A101">
+        <v>4.2346408369999997</v>
+      </c>
+      <c r="B101">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -62394,8 +63142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BA33B1-CE5D-476B-8572-F81954994F4A}">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -62652,7 +63400,7 @@
         <v>2</v>
       </c>
       <c r="F12">
-        <f t="shared" ref="F12:F28" si="1">COUNTIFS(A:A,"&lt;"&amp;E12,A:A,"&gt;="&amp;D12)</f>
+        <f t="shared" ref="F12:F27" si="1">COUNTIFS(A:A,"&lt;"&amp;E12,A:A,"&gt;="&amp;D12)</f>
         <v>29</v>
       </c>
       <c r="H12">
